--- a/заказы/статистика филиалы/2024/01,24/18,01,24 ЗПФ/дв 18,01,24 бррсч зпф от филиала.xlsx
+++ b/заказы/статистика филиалы/2024/01,24/18,01,24 ЗПФ/дв 18,01,24 бррсч зпф от филиала.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Uaer4\Desktop\18,01,24 филиалы ЗПФ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\WORK\ПОКОМ_Останкино\ПОКОМ\pokom_data\заказы\статистика филиалы\2024\01,24\18,01,24 ЗПФ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAAB38DE-15DA-4248-B544-EAFE166DE26B}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFA2DD26-7B9A-40E5-8B98-E965C354A426}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="0" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -21,7 +21,7 @@
     <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AE$3</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">TDSheet!$A$3:$AF$3</definedName>
   </definedNames>
   <calcPr calcId="181029" refMode="R1C1"/>
   <extLst>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="84">
   <si>
     <t>Период: 11.01.2024 - 18.01.2024</t>
   </si>
@@ -206,9 +206,6 @@
     <t>раз</t>
   </si>
   <si>
-    <t>заказ в дороге</t>
-  </si>
-  <si>
     <t>ср</t>
   </si>
   <si>
@@ -285,6 +282,12 @@
   </si>
   <si>
     <t>23,01,</t>
+  </si>
+  <si>
+    <t>метка</t>
+  </si>
+  <si>
+    <t>заказ в пути</t>
   </si>
 </sst>
 </file>
@@ -10429,11 +10432,11 @@
     <outlinePr summaryBelow="0" summaryRight="0"/>
     <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="A1:AE48"/>
+  <dimension ref="A1:AF48"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A14" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="AF16" sqref="AF16"/>
+      <selection pane="bottomLeft" activeCell="L4" sqref="L4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" outlineLevelRow="1" x14ac:dyDescent="0.2"/>
@@ -10442,36 +10445,36 @@
     <col min="2" max="2" width="4" style="1" customWidth="1"/>
     <col min="3" max="6" width="6.83203125" style="1" customWidth="1"/>
     <col min="7" max="7" width="4.6640625" style="24" customWidth="1"/>
-    <col min="8" max="8" width="5.83203125" style="2" customWidth="1"/>
-    <col min="9" max="10" width="7.33203125" style="2" customWidth="1"/>
-    <col min="11" max="11" width="1" style="2" customWidth="1"/>
-    <col min="12" max="17" width="7.33203125" style="2" customWidth="1"/>
-    <col min="18" max="18" width="15.83203125" style="2" customWidth="1"/>
-    <col min="19" max="19" width="5" style="2" customWidth="1"/>
-    <col min="20" max="20" width="5.6640625" style="2" customWidth="1"/>
-    <col min="21" max="23" width="7.1640625" style="2" customWidth="1"/>
-    <col min="24" max="24" width="13.6640625" style="2" customWidth="1"/>
-    <col min="25" max="26" width="7.1640625" style="2" customWidth="1"/>
-    <col min="27" max="27" width="7.1640625" style="24" customWidth="1"/>
-    <col min="28" max="28" width="7.1640625" style="25" customWidth="1"/>
-    <col min="29" max="29" width="7.1640625" style="2" customWidth="1"/>
-    <col min="30" max="30" width="7.1640625" style="25" customWidth="1"/>
-    <col min="31" max="31" width="7.1640625" style="2" customWidth="1"/>
-    <col min="32" max="16384" width="10.5" style="2"/>
+    <col min="8" max="9" width="5.83203125" style="2" customWidth="1"/>
+    <col min="10" max="11" width="7.33203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="1" style="2" customWidth="1"/>
+    <col min="13" max="18" width="7.33203125" style="2" customWidth="1"/>
+    <col min="19" max="19" width="15.83203125" style="2" customWidth="1"/>
+    <col min="20" max="20" width="5" style="2" customWidth="1"/>
+    <col min="21" max="21" width="5.6640625" style="2" customWidth="1"/>
+    <col min="22" max="24" width="7.1640625" style="2" customWidth="1"/>
+    <col min="25" max="25" width="13.6640625" style="2" customWidth="1"/>
+    <col min="26" max="27" width="7.1640625" style="2" customWidth="1"/>
+    <col min="28" max="28" width="7.1640625" style="24" customWidth="1"/>
+    <col min="29" max="29" width="7.1640625" style="25" customWidth="1"/>
+    <col min="30" max="30" width="7.1640625" style="2" customWidth="1"/>
+    <col min="31" max="31" width="7.1640625" style="25" customWidth="1"/>
+    <col min="32" max="32" width="7.1640625" style="2" customWidth="1"/>
+    <col min="33" max="16384" width="10.5" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:32" ht="12.95" customHeight="1" outlineLevel="1" x14ac:dyDescent="0.2">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="3"/>
       <c r="C1" s="3"/>
     </row>
-    <row r="2" spans="1:31" ht="12.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:32" ht="12.95" customHeight="1" outlineLevel="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="B2" s="3"/>
       <c r="C2" s="3"/>
     </row>
-    <row r="3" spans="1:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="4" t="s">
         <v>1</v>
       </c>
@@ -10488,75 +10491,78 @@
         <v>53</v>
       </c>
       <c r="H3" s="23" t="s">
-        <v>70</v>
-      </c>
-      <c r="I3" s="12" t="s">
+        <v>69</v>
+      </c>
+      <c r="I3" s="23" t="s">
+        <v>82</v>
+      </c>
+      <c r="J3" s="12" t="s">
         <v>54</v>
       </c>
-      <c r="J3" s="12" t="s">
+      <c r="K3" s="12" t="s">
         <v>55</v>
       </c>
-      <c r="K3" s="13" t="s">
+      <c r="L3" s="13" t="s">
+        <v>83</v>
+      </c>
+      <c r="M3" s="12" t="s">
         <v>56</v>
       </c>
-      <c r="L3" s="12" t="s">
+      <c r="N3" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="O3" s="31" t="s">
+        <v>77</v>
+      </c>
+      <c r="P3" s="36" t="s">
+        <v>79</v>
+      </c>
+      <c r="Q3" s="37" t="s">
+        <v>79</v>
+      </c>
+      <c r="R3" s="14" t="s">
+        <v>78</v>
+      </c>
+      <c r="S3" s="15"/>
+      <c r="T3" s="12" t="s">
         <v>57</v>
       </c>
-      <c r="M3" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="N3" s="31" t="s">
-        <v>78</v>
-      </c>
-      <c r="O3" s="36" t="s">
-        <v>80</v>
-      </c>
-      <c r="P3" s="37" t="s">
-        <v>80</v>
-      </c>
-      <c r="Q3" s="14" t="s">
-        <v>79</v>
-      </c>
-      <c r="R3" s="15"/>
-      <c r="S3" s="12" t="s">
+      <c r="U3" s="12" t="s">
         <v>58</v>
       </c>
-      <c r="T3" s="12" t="s">
+      <c r="V3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="W3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="X3" s="12" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y3" s="12" t="s">
         <v>59</v>
       </c>
-      <c r="U3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="V3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="W3" s="12" t="s">
-        <v>57</v>
-      </c>
-      <c r="X3" s="12" t="s">
+      <c r="Z3" s="12" t="s">
         <v>60</v>
       </c>
-      <c r="Y3" s="12" t="s">
+      <c r="AA3" s="12" t="s">
+        <v>60</v>
+      </c>
+      <c r="AB3" s="11"/>
+      <c r="AC3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="Z3" s="12" t="s">
+      <c r="AD3" s="12" t="s">
+        <v>62</v>
+      </c>
+      <c r="AE3" s="16" t="s">
         <v>61</v>
       </c>
-      <c r="AA3" s="11"/>
-      <c r="AB3" s="16" t="s">
+      <c r="AF3" s="12" t="s">
         <v>62</v>
       </c>
-      <c r="AC3" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AD3" s="16" t="s">
-        <v>62</v>
-      </c>
-      <c r="AE3" s="12" t="s">
-        <v>63</v>
-      </c>
     </row>
-    <row r="4" spans="1:31" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:32" ht="26.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="6"/>
       <c r="B4" s="7"/>
       <c r="C4" s="5" t="s">
@@ -10573,55 +10579,56 @@
       </c>
       <c r="G4" s="11"/>
       <c r="H4" s="11"/>
-      <c r="I4" s="12"/>
+      <c r="I4" s="11"/>
       <c r="J4" s="12"/>
-      <c r="K4" s="13"/>
-      <c r="L4" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="M4" s="17"/>
-      <c r="N4" s="32"/>
-      <c r="O4" s="38" t="s">
+      <c r="K4" s="12"/>
+      <c r="L4" s="13"/>
+      <c r="M4" s="13" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4" s="17"/>
+      <c r="O4" s="32"/>
+      <c r="P4" s="38" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q4" s="39" t="s">
         <v>81</v>
       </c>
-      <c r="P4" s="39" t="s">
-        <v>82</v>
-      </c>
-      <c r="Q4" s="14" t="s">
+      <c r="R4" s="14" t="s">
+        <v>64</v>
+      </c>
+      <c r="S4" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="R4" s="15" t="s">
+      <c r="T4" s="12"/>
+      <c r="U4" s="12"/>
+      <c r="V4" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="S4" s="12"/>
-      <c r="T4" s="12"/>
-      <c r="U4" s="13" t="s">
+      <c r="W4" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="V4" s="13" t="s">
-        <v>68</v>
-      </c>
-      <c r="W4" s="13" t="s">
-        <v>64</v>
-      </c>
-      <c r="X4" s="12"/>
-      <c r="Y4" s="12" t="s">
+      <c r="X4" s="13" t="s">
+        <v>63</v>
+      </c>
+      <c r="Y4" s="12"/>
+      <c r="Z4" s="12" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA4" s="12" t="s">
         <v>81</v>
       </c>
-      <c r="Z4" s="12" t="s">
-        <v>82</v>
-      </c>
-      <c r="AA4" s="11"/>
-      <c r="AB4" s="16" t="s">
+      <c r="AB4" s="11"/>
+      <c r="AC4" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="AD4" s="12"/>
+      <c r="AE4" s="16" t="s">
         <v>81</v>
       </c>
-      <c r="AC4" s="12"/>
-      <c r="AD4" s="16" t="s">
-        <v>82</v>
-      </c>
-      <c r="AE4" s="12"/>
+      <c r="AF4" s="12"/>
     </row>
-    <row r="5" spans="1:31" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:32" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6"/>
       <c r="B5" s="7"/>
       <c r="C5" s="5"/>
@@ -10636,87 +10643,88 @@
       </c>
       <c r="G5" s="11"/>
       <c r="H5" s="11"/>
-      <c r="I5" s="18">
-        <f t="shared" ref="I5:Q5" si="0">SUM(I6:I105)</f>
+      <c r="I5" s="11"/>
+      <c r="J5" s="18">
+        <f t="shared" ref="J5:R5" si="0">SUM(J6:J105)</f>
         <v>16276.199999999999</v>
       </c>
-      <c r="J5" s="19">
+      <c r="K5" s="19">
         <f t="shared" si="0"/>
         <v>-332.2</v>
       </c>
-      <c r="K5" s="20">
+      <c r="L5" s="20">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="L5" s="21">
+      <c r="M5" s="21">
         <f t="shared" si="0"/>
         <v>3188.8000000000006</v>
       </c>
-      <c r="M5" s="19">
+      <c r="N5" s="19">
         <f t="shared" si="0"/>
         <v>24679.960000000006</v>
       </c>
-      <c r="N5" s="33">
+      <c r="O5" s="33">
         <f t="shared" si="0"/>
         <v>25541.52</v>
       </c>
-      <c r="O5" s="40">
+      <c r="P5" s="40">
         <f t="shared" si="0"/>
         <v>15671.519999999999</v>
       </c>
-      <c r="P5" s="41">
-        <f>SUM(P6:P105)</f>
+      <c r="Q5" s="41">
+        <f>SUM(Q6:Q105)</f>
         <v>9870</v>
       </c>
-      <c r="Q5" s="21">
+      <c r="R5" s="21">
         <f t="shared" si="0"/>
         <v>9280</v>
       </c>
-      <c r="R5" s="20"/>
-      <c r="S5" s="12"/>
+      <c r="S5" s="20"/>
       <c r="T5" s="12"/>
-      <c r="U5" s="18">
-        <f>SUM(U6:U105)</f>
-        <v>2508.7200000000003</v>
-      </c>
+      <c r="U5" s="12"/>
       <c r="V5" s="18">
         <f>SUM(V6:V105)</f>
-        <v>2297.4000000000005</v>
+        <v>2508.7200000000003</v>
       </c>
       <c r="W5" s="18">
         <f>SUM(W6:W105)</f>
+        <v>2297.4000000000005</v>
+      </c>
+      <c r="X5" s="18">
+        <f>SUM(X6:X105)</f>
         <v>2897.6400000000003</v>
       </c>
-      <c r="X5" s="12"/>
-      <c r="Y5" s="18">
-        <f>SUM(Y6:Y105)</f>
-        <v>11686.704</v>
-      </c>
+      <c r="Y5" s="12"/>
       <c r="Z5" s="18">
         <f>SUM(Z6:Z105)</f>
+        <v>11686.704</v>
+      </c>
+      <c r="AA5" s="18">
+        <f>SUM(AA6:AA105)</f>
         <v>7030.5</v>
       </c>
-      <c r="AA5" s="11" t="s">
-        <v>69</v>
-      </c>
-      <c r="AB5" s="22">
-        <f>SUM(AB6:AB105)</f>
+      <c r="AB5" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="AC5" s="22">
+        <f>SUM(AC6:AC105)</f>
         <v>2312</v>
       </c>
-      <c r="AC5" s="18">
-        <f>SUM(AC6:AC105)</f>
+      <c r="AD5" s="18">
+        <f>SUM(AD6:AD105)</f>
         <v>11644.76</v>
       </c>
-      <c r="AD5" s="22">
-        <f>SUM(AD6:AD105)</f>
+      <c r="AE5" s="22">
+        <f>SUM(AE6:AE105)</f>
         <v>1376</v>
       </c>
-      <c r="AE5" s="18">
-        <f>SUM(AE6:AE105)</f>
+      <c r="AF5" s="18">
+        <f>SUM(AF6:AF105)</f>
         <v>6999.5800000000008</v>
       </c>
     </row>
-    <row r="6" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="8" t="s">
         <v>8</v>
       </c>
@@ -10743,81 +10751,81 @@
         <f>VLOOKUP(A6,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I6" s="2">
+      <c r="J6" s="2">
         <f>VLOOKUP(A6,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>262</v>
       </c>
-      <c r="J6" s="2">
-        <f>E6-I6</f>
-        <v>0</v>
-      </c>
-      <c r="L6" s="2">
+      <c r="K6" s="2">
+        <f>E6-J6</f>
+        <v>0</v>
+      </c>
+      <c r="M6" s="2">
         <f>E6/5</f>
         <v>52.4</v>
       </c>
-      <c r="M6" s="28">
-        <f>11*L6-F6</f>
+      <c r="N6" s="28">
+        <f>11*M6-F6</f>
         <v>466.4</v>
       </c>
-      <c r="N6" s="34">
+      <c r="O6" s="34">
         <v>430</v>
       </c>
-      <c r="O6" s="42">
-        <f>N6-P6</f>
+      <c r="P6" s="42">
+        <f>O6-Q6</f>
         <v>230</v>
       </c>
-      <c r="P6" s="43">
+      <c r="Q6" s="43">
         <v>200</v>
       </c>
-      <c r="Q6" s="30"/>
-      <c r="S6" s="2">
-        <f>(F6+N6)/L6</f>
+      <c r="R6" s="30"/>
+      <c r="T6" s="2">
+        <f>(F6+O6)/M6</f>
         <v>10.305343511450381</v>
       </c>
-      <c r="T6" s="2">
-        <f>F6/L6</f>
+      <c r="U6" s="2">
+        <f>F6/M6</f>
         <v>2.0992366412213741</v>
       </c>
-      <c r="U6" s="2">
+      <c r="V6" s="2">
         <f>VLOOKUP(A6,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>15.4</v>
       </c>
-      <c r="V6" s="2">
+      <c r="W6" s="2">
         <f>VLOOKUP(A6,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>42.333333333333336</v>
       </c>
-      <c r="W6" s="2">
+      <c r="X6" s="2">
         <f>VLOOKUP(A6,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>46.8</v>
       </c>
-      <c r="Y6" s="2">
-        <f t="shared" ref="Y6:Y13" si="1">O6*G6</f>
+      <c r="Z6" s="2">
+        <f t="shared" ref="Z6:Z13" si="1">P6*G6</f>
         <v>69</v>
       </c>
-      <c r="Z6" s="2">
-        <f>P6*G6</f>
+      <c r="AA6" s="2">
+        <f>Q6*G6</f>
         <v>60</v>
       </c>
-      <c r="AA6" s="24">
+      <c r="AB6" s="24">
         <f>VLOOKUP(A6,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB6" s="25">
+      <c r="AC6" s="25">
         <v>19</v>
       </c>
-      <c r="AC6" s="2">
-        <f>AB6*AA6*G6</f>
+      <c r="AD6" s="2">
+        <f>AC6*AB6*G6</f>
         <v>68.399999999999991</v>
       </c>
-      <c r="AD6" s="25">
+      <c r="AE6" s="25">
         <v>16</v>
       </c>
-      <c r="AE6" s="2">
-        <f>AD6*AA6*G6</f>
+      <c r="AF6" s="2">
+        <f>AE6*AB6*G6</f>
         <v>57.599999999999994</v>
       </c>
     </row>
-    <row r="7" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="8" t="s">
         <v>10</v>
       </c>
@@ -10844,81 +10852,81 @@
         <f>VLOOKUP(A7,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I7" s="2">
+      <c r="J7" s="2">
         <f>VLOOKUP(A7,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>585</v>
       </c>
-      <c r="J7" s="2">
-        <f t="shared" ref="J7:J48" si="2">E7-I7</f>
+      <c r="K7" s="2">
+        <f t="shared" ref="K7:K48" si="2">E7-J7</f>
         <v>-3</v>
       </c>
-      <c r="L7" s="2">
-        <f t="shared" ref="L7:L48" si="3">E7/5</f>
+      <c r="M7" s="2">
+        <f t="shared" ref="M7:M48" si="3">E7/5</f>
         <v>116.4</v>
       </c>
-      <c r="M7" s="28">
-        <f>14*L7-F7</f>
+      <c r="N7" s="28">
+        <f>14*M7-F7</f>
         <v>808.60000000000014</v>
       </c>
-      <c r="N7" s="34">
+      <c r="O7" s="34">
         <v>750</v>
       </c>
-      <c r="O7" s="42">
-        <f t="shared" ref="O7:O48" si="4">N7-P7</f>
+      <c r="P7" s="42">
+        <f t="shared" ref="P7:P48" si="4">O7-Q7</f>
         <v>450</v>
       </c>
-      <c r="P7" s="43">
+      <c r="Q7" s="43">
         <v>300</v>
       </c>
-      <c r="Q7" s="30"/>
-      <c r="S7" s="2">
-        <f t="shared" ref="S7:S48" si="5">(F7+N7)/L7</f>
+      <c r="R7" s="30"/>
+      <c r="T7" s="2">
+        <f t="shared" ref="T7:T48" si="5">(F7+O7)/M7</f>
         <v>13.496563573883162</v>
       </c>
-      <c r="T7" s="2">
-        <f t="shared" ref="T7:T48" si="6">F7/L7</f>
+      <c r="U7" s="2">
+        <f t="shared" ref="U7:U48" si="6">F7/M7</f>
         <v>7.0532646048109964</v>
       </c>
-      <c r="U7" s="2">
+      <c r="V7" s="2">
         <f>VLOOKUP(A7,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>115.4</v>
       </c>
-      <c r="V7" s="2">
+      <c r="W7" s="2">
         <f>VLOOKUP(A7,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>73.666666666666671</v>
       </c>
-      <c r="W7" s="2">
+      <c r="X7" s="2">
         <f>VLOOKUP(A7,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>116.8</v>
       </c>
-      <c r="Y7" s="2">
+      <c r="Z7" s="2">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="Z7" s="2">
-        <f t="shared" ref="Z7:Z48" si="7">P7*G7</f>
+      <c r="AA7" s="2">
+        <f t="shared" ref="AA7:AA48" si="7">Q7*G7</f>
         <v>90</v>
       </c>
-      <c r="AA7" s="24">
+      <c r="AB7" s="24">
         <f>VLOOKUP(A7,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB7" s="25">
+      <c r="AC7" s="25">
         <v>37</v>
       </c>
-      <c r="AC7" s="2">
-        <f t="shared" ref="AC7:AC48" si="8">AB7*AA7*G7</f>
+      <c r="AD7" s="2">
+        <f t="shared" ref="AD7:AD48" si="8">AC7*AB7*G7</f>
         <v>133.19999999999999</v>
       </c>
-      <c r="AD7" s="25">
+      <c r="AE7" s="25">
         <v>25</v>
       </c>
-      <c r="AE7" s="2">
-        <f t="shared" ref="AE7:AE48" si="9">AD7*AA7*G7</f>
+      <c r="AF7" s="2">
+        <f t="shared" ref="AF7:AF48" si="9">AE7*AB7*G7</f>
         <v>90</v>
       </c>
     </row>
-    <row r="8" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="8" t="s">
         <v>11</v>
       </c>
@@ -10945,81 +10953,81 @@
         <f>VLOOKUP(A8,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I8" s="2">
+      <c r="J8" s="2">
         <f>VLOOKUP(A8,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>548</v>
       </c>
-      <c r="J8" s="2">
+      <c r="K8" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L8" s="2">
+      <c r="M8" s="2">
         <f t="shared" si="3"/>
         <v>109.8</v>
       </c>
-      <c r="M8" s="28">
-        <f>14*L8-F8</f>
+      <c r="N8" s="28">
+        <f>14*M8-F8</f>
         <v>760.2</v>
       </c>
-      <c r="N8" s="34">
+      <c r="O8" s="34">
         <v>700</v>
       </c>
-      <c r="O8" s="42">
+      <c r="P8" s="42">
         <f t="shared" si="4"/>
         <v>400</v>
       </c>
-      <c r="P8" s="43">
+      <c r="Q8" s="43">
         <v>300</v>
       </c>
-      <c r="Q8" s="30"/>
-      <c r="S8" s="2">
+      <c r="R8" s="30"/>
+      <c r="T8" s="2">
         <f t="shared" si="5"/>
         <v>13.451730418943534</v>
       </c>
-      <c r="T8" s="2">
+      <c r="U8" s="2">
         <f t="shared" si="6"/>
         <v>7.0765027322404377</v>
       </c>
-      <c r="U8" s="2">
+      <c r="V8" s="2">
         <f>VLOOKUP(A8,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>109.6</v>
       </c>
-      <c r="V8" s="2">
+      <c r="W8" s="2">
         <f>VLOOKUP(A8,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>73.333333333333329</v>
       </c>
-      <c r="W8" s="2">
+      <c r="X8" s="2">
         <f>VLOOKUP(A8,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>132.19999999999999</v>
       </c>
-      <c r="Y8" s="2">
+      <c r="Z8" s="2">
         <f t="shared" si="1"/>
         <v>120</v>
       </c>
-      <c r="Z8" s="2">
+      <c r="AA8" s="2">
         <f t="shared" si="7"/>
         <v>90</v>
       </c>
-      <c r="AA8" s="24">
+      <c r="AB8" s="24">
         <f>VLOOKUP(A8,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB8" s="25">
+      <c r="AC8" s="25">
         <v>33</v>
       </c>
-      <c r="AC8" s="2">
+      <c r="AD8" s="2">
         <f t="shared" si="8"/>
         <v>118.8</v>
       </c>
-      <c r="AD8" s="25">
+      <c r="AE8" s="25">
         <v>25</v>
       </c>
-      <c r="AE8" s="2">
+      <c r="AF8" s="2">
         <f t="shared" si="9"/>
         <v>90</v>
       </c>
     </row>
-    <row r="9" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="8" t="s">
         <v>12</v>
       </c>
@@ -11046,81 +11054,81 @@
         <f>VLOOKUP(A9,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I9" s="2">
+      <c r="J9" s="2">
         <f>VLOOKUP(A9,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>222</v>
       </c>
-      <c r="J9" s="2">
+      <c r="K9" s="2">
         <f t="shared" si="2"/>
         <v>3</v>
       </c>
-      <c r="L9" s="2">
+      <c r="M9" s="2">
         <f t="shared" si="3"/>
         <v>45</v>
       </c>
-      <c r="M9" s="28">
-        <f>14*L9-F9</f>
+      <c r="N9" s="28">
+        <f>14*M9-F9</f>
         <v>393</v>
       </c>
-      <c r="N9" s="34">
+      <c r="O9" s="34">
         <v>370</v>
       </c>
-      <c r="O9" s="42">
+      <c r="P9" s="42">
         <f t="shared" si="4"/>
         <v>270</v>
       </c>
-      <c r="P9" s="43">
+      <c r="Q9" s="43">
         <v>100</v>
       </c>
-      <c r="Q9" s="30"/>
-      <c r="S9" s="2">
+      <c r="R9" s="30"/>
+      <c r="T9" s="2">
         <f t="shared" si="5"/>
         <v>13.488888888888889</v>
       </c>
-      <c r="T9" s="2">
+      <c r="U9" s="2">
         <f t="shared" si="6"/>
         <v>5.2666666666666666</v>
       </c>
-      <c r="U9" s="2">
+      <c r="V9" s="2">
         <f>VLOOKUP(A9,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>31.2</v>
       </c>
-      <c r="V9" s="2">
+      <c r="W9" s="2">
         <f>VLOOKUP(A9,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>31</v>
       </c>
-      <c r="W9" s="2">
+      <c r="X9" s="2">
         <f>VLOOKUP(A9,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>44.4</v>
       </c>
-      <c r="Y9" s="2">
+      <c r="Z9" s="2">
         <f t="shared" si="1"/>
         <v>97.2</v>
       </c>
-      <c r="Z9" s="2">
+      <c r="AA9" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="AA9" s="24">
+      <c r="AB9" s="24">
         <f>VLOOKUP(A9,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>10</v>
       </c>
-      <c r="AB9" s="25">
+      <c r="AC9" s="25">
         <v>27</v>
       </c>
-      <c r="AC9" s="2">
+      <c r="AD9" s="2">
         <f t="shared" si="8"/>
         <v>97.2</v>
       </c>
-      <c r="AD9" s="25">
+      <c r="AE9" s="25">
         <v>10</v>
       </c>
-      <c r="AE9" s="2">
+      <c r="AF9" s="2">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
-    <row r="10" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="8" t="s">
         <v>13</v>
       </c>
@@ -11145,83 +11153,83 @@
         <f>VLOOKUP(A10,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I10" s="2">
+      <c r="J10" s="2">
         <f>VLOOKUP(A10,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>7.4</v>
       </c>
-      <c r="J10" s="2">
+      <c r="K10" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L10" s="2">
+      <c r="M10" s="2">
         <f t="shared" si="3"/>
         <v>1.48</v>
       </c>
-      <c r="M10" s="28"/>
-      <c r="N10" s="34">
-        <f t="shared" ref="N10:N47" si="10">M10</f>
-        <v>0</v>
-      </c>
-      <c r="O10" s="42">
+      <c r="N10" s="28"/>
+      <c r="O10" s="34">
+        <f t="shared" ref="O10:O47" si="10">N10</f>
+        <v>0</v>
+      </c>
+      <c r="P10" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P10" s="43"/>
-      <c r="Q10" s="30"/>
-      <c r="S10" s="2">
+      <c r="Q10" s="43"/>
+      <c r="R10" s="30"/>
+      <c r="T10" s="2">
         <f t="shared" si="5"/>
         <v>20</v>
       </c>
-      <c r="T10" s="2">
+      <c r="U10" s="2">
         <f t="shared" si="6"/>
         <v>20</v>
       </c>
-      <c r="U10" s="2">
+      <c r="V10" s="2">
         <f>VLOOKUP(A10,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>0.74</v>
       </c>
-      <c r="V10" s="2">
+      <c r="W10" s="2">
         <f>VLOOKUP(A10,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0</v>
       </c>
-      <c r="W10" s="2">
+      <c r="X10" s="2">
         <f>VLOOKUP(A10,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>0</v>
       </c>
-      <c r="X10" s="26" t="str">
+      <c r="Y10" s="26" t="str">
         <f>VLOOKUP(A10,[1]TDSheet!$A$1:$U$65536,21,0)</f>
         <v>нужно увеличить продажи</v>
       </c>
-      <c r="Y10" s="2">
+      <c r="Z10" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z10" s="2">
+      <c r="AA10" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA10" s="24">
+      <c r="AB10" s="24">
         <f>VLOOKUP(A10,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>3.7</v>
       </c>
-      <c r="AB10" s="25">
-        <f t="shared" ref="AB7:AB48" si="11">O10/AA10</f>
-        <v>0</v>
-      </c>
-      <c r="AC10" s="2">
+      <c r="AC10" s="25">
+        <f t="shared" ref="AC10:AC39" si="11">P10/AB10</f>
+        <v>0</v>
+      </c>
+      <c r="AD10" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD10" s="25">
-        <f t="shared" ref="AD7:AD48" si="12">P10/AA10</f>
-        <v>0</v>
-      </c>
-      <c r="AE10" s="2">
+      <c r="AE10" s="25">
+        <f t="shared" ref="AE10:AE41" si="12">Q10/AB10</f>
+        <v>0</v>
+      </c>
+      <c r="AF10" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="8" t="s">
         <v>15</v>
       </c>
@@ -11248,81 +11256,81 @@
         <f>VLOOKUP(A11,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I11" s="2">
+      <c r="J11" s="2">
         <f>VLOOKUP(A11,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>195.5</v>
       </c>
-      <c r="J11" s="2">
+      <c r="K11" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L11" s="2">
+      <c r="M11" s="2">
         <f t="shared" si="3"/>
         <v>39.1</v>
       </c>
-      <c r="M11" s="28">
-        <f>14*L11-F11</f>
+      <c r="N11" s="28">
+        <f>14*M11-F11</f>
         <v>216.39999999999998</v>
       </c>
-      <c r="N11" s="34">
+      <c r="O11" s="34">
         <v>180</v>
       </c>
-      <c r="O11" s="42">
+      <c r="P11" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P11" s="43">
+      <c r="Q11" s="43">
         <v>80</v>
       </c>
-      <c r="Q11" s="30"/>
-      <c r="S11" s="2">
+      <c r="R11" s="30"/>
+      <c r="T11" s="2">
         <f t="shared" si="5"/>
         <v>13.069053708439897</v>
       </c>
-      <c r="T11" s="2">
+      <c r="U11" s="2">
         <f t="shared" si="6"/>
         <v>8.4654731457800505</v>
       </c>
-      <c r="U11" s="2">
+      <c r="V11" s="2">
         <f>VLOOKUP(A11,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>44</v>
       </c>
-      <c r="V11" s="2">
+      <c r="W11" s="2">
         <f>VLOOKUP(A11,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>16.333333333333332</v>
       </c>
-      <c r="W11" s="2">
+      <c r="X11" s="2">
         <f>VLOOKUP(A11,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>37.200000000000003</v>
       </c>
-      <c r="Y11" s="2">
+      <c r="Z11" s="2">
         <f t="shared" si="1"/>
         <v>100</v>
       </c>
-      <c r="Z11" s="2">
+      <c r="AA11" s="2">
         <f t="shared" si="7"/>
         <v>80</v>
       </c>
-      <c r="AA11" s="24">
+      <c r="AB11" s="24">
         <f>VLOOKUP(A11,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>5.5</v>
       </c>
-      <c r="AB11" s="25">
+      <c r="AC11" s="25">
         <v>18</v>
       </c>
-      <c r="AC11" s="2">
+      <c r="AD11" s="2">
         <f t="shared" si="8"/>
         <v>99</v>
       </c>
-      <c r="AD11" s="25">
+      <c r="AE11" s="25">
         <v>14</v>
       </c>
-      <c r="AE11" s="2">
+      <c r="AF11" s="2">
         <f t="shared" si="9"/>
         <v>77</v>
       </c>
     </row>
-    <row r="12" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="8" t="s">
         <v>16</v>
       </c>
@@ -11347,79 +11355,79 @@
         <f>VLOOKUP(A12,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I12" s="2">
+      <c r="J12" s="2">
         <f>VLOOKUP(A12,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>41</v>
       </c>
-      <c r="J12" s="2">
+      <c r="K12" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L12" s="2">
+      <c r="M12" s="2">
         <f t="shared" si="3"/>
         <v>8.1999999999999993</v>
       </c>
-      <c r="M12" s="28"/>
-      <c r="N12" s="34">
+      <c r="N12" s="28"/>
+      <c r="O12" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O12" s="42">
+      <c r="P12" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P12" s="43"/>
-      <c r="Q12" s="30"/>
-      <c r="S12" s="2">
+      <c r="Q12" s="43"/>
+      <c r="R12" s="30"/>
+      <c r="T12" s="2">
         <f t="shared" si="5"/>
         <v>21.341463414634148</v>
       </c>
-      <c r="T12" s="2">
+      <c r="U12" s="2">
         <f t="shared" si="6"/>
         <v>21.341463414634148</v>
       </c>
-      <c r="U12" s="2">
+      <c r="V12" s="2">
         <f>VLOOKUP(A12,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>3.6</v>
       </c>
-      <c r="V12" s="2">
+      <c r="W12" s="2">
         <f>VLOOKUP(A12,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>14.333333333333334</v>
       </c>
-      <c r="W12" s="2">
+      <c r="X12" s="2">
         <f>VLOOKUP(A12,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>27.4</v>
       </c>
-      <c r="Y12" s="2">
+      <c r="Z12" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z12" s="2">
+      <c r="AA12" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA12" s="24">
+      <c r="AB12" s="24">
         <f>VLOOKUP(A12,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB12" s="25">
+      <c r="AC12" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC12" s="2">
+      <c r="AD12" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD12" s="25">
+      <c r="AE12" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE12" s="2">
+      <c r="AF12" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="8" t="s">
         <v>17</v>
       </c>
@@ -11441,79 +11449,79 @@
       <c r="H13" s="2">
         <v>180</v>
       </c>
-      <c r="J13" s="2">
+      <c r="K13" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L13" s="2">
+      <c r="M13" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M13" s="28"/>
-      <c r="N13" s="34">
+      <c r="N13" s="28"/>
+      <c r="O13" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O13" s="42">
+      <c r="P13" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P13" s="43"/>
-      <c r="Q13" s="30"/>
-      <c r="S13" s="2" t="e">
+      <c r="Q13" s="43"/>
+      <c r="R13" s="30"/>
+      <c r="T13" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T13" s="2" t="e">
+      <c r="U13" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U13" s="2">
+      <c r="V13" s="2">
         <f>VLOOKUP(A13,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>0</v>
       </c>
-      <c r="V13" s="2">
+      <c r="W13" s="2">
         <f>VLOOKUP(A13,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0</v>
       </c>
-      <c r="W13" s="2">
+      <c r="X13" s="2">
         <f>VLOOKUP(A13,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>0</v>
       </c>
-      <c r="X13" s="26" t="str">
+      <c r="Y13" s="26" t="str">
         <f>VLOOKUP(A13,[1]TDSheet!$A$1:$U$65536,21,0)</f>
         <v>нужно увеличить продажи</v>
       </c>
-      <c r="Y13" s="2">
+      <c r="Z13" s="2">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="Z13" s="2">
+      <c r="AA13" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA13" s="24">
+      <c r="AB13" s="24">
         <f>VLOOKUP(A13,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>3</v>
       </c>
-      <c r="AB13" s="25">
+      <c r="AC13" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC13" s="2">
+      <c r="AD13" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD13" s="25">
+      <c r="AE13" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE13" s="2">
+      <c r="AF13" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="8" t="s">
         <v>18</v>
       </c>
@@ -11540,81 +11548,81 @@
         <f>VLOOKUP(A14,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I14" s="2">
+      <c r="J14" s="2">
         <f>VLOOKUP(A14,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>306</v>
       </c>
-      <c r="J14" s="2">
+      <c r="K14" s="2">
         <f t="shared" si="2"/>
         <v>-9</v>
       </c>
-      <c r="L14" s="2">
+      <c r="M14" s="2">
         <f t="shared" si="3"/>
         <v>59.4</v>
       </c>
-      <c r="M14" s="28">
-        <f>13*L14-F14</f>
+      <c r="N14" s="28">
+        <f>13*M14-F14</f>
         <v>560.19999999999993</v>
       </c>
-      <c r="N14" s="34">
+      <c r="O14" s="34">
         <v>530</v>
       </c>
-      <c r="O14" s="42">
+      <c r="P14" s="42">
         <f t="shared" si="4"/>
         <v>330</v>
       </c>
-      <c r="P14" s="43">
+      <c r="Q14" s="43">
         <v>200</v>
       </c>
-      <c r="Q14" s="30"/>
-      <c r="S14" s="2">
+      <c r="R14" s="30"/>
+      <c r="T14" s="2">
         <f t="shared" si="5"/>
         <v>12.491582491582491</v>
       </c>
-      <c r="T14" s="2">
+      <c r="U14" s="2">
         <f t="shared" si="6"/>
         <v>3.5690235690235692</v>
       </c>
-      <c r="U14" s="2">
+      <c r="V14" s="2">
         <f>VLOOKUP(A14,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>55.6</v>
       </c>
-      <c r="V14" s="2">
+      <c r="W14" s="2">
         <f>VLOOKUP(A14,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>41.666666666666664</v>
       </c>
-      <c r="W14" s="2">
+      <c r="X14" s="2">
         <f>VLOOKUP(A14,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>42.2</v>
       </c>
-      <c r="Y14" s="2">
-        <f>O14*G14</f>
+      <c r="Z14" s="2">
+        <f>P14*G14</f>
         <v>82.5</v>
       </c>
-      <c r="Z14" s="2">
+      <c r="AA14" s="2">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="AA14" s="24">
+      <c r="AB14" s="24">
         <f>VLOOKUP(A14,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB14" s="25">
+      <c r="AC14" s="25">
         <v>27</v>
       </c>
-      <c r="AC14" s="2">
+      <c r="AD14" s="2">
         <f t="shared" si="8"/>
         <v>81</v>
       </c>
-      <c r="AD14" s="25">
+      <c r="AE14" s="25">
         <v>16</v>
       </c>
-      <c r="AE14" s="2">
+      <c r="AF14" s="2">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
     </row>
-    <row r="15" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="8" t="s">
         <v>19</v>
       </c>
@@ -11636,79 +11644,79 @@
       <c r="H15" s="2">
         <v>180</v>
       </c>
-      <c r="J15" s="2">
+      <c r="K15" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L15" s="2">
+      <c r="M15" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M15" s="28"/>
-      <c r="N15" s="34">
+      <c r="N15" s="28"/>
+      <c r="O15" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O15" s="42">
+      <c r="P15" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P15" s="43"/>
-      <c r="Q15" s="30"/>
-      <c r="S15" s="2" t="e">
+      <c r="Q15" s="43"/>
+      <c r="R15" s="30"/>
+      <c r="T15" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T15" s="2" t="e">
+      <c r="U15" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U15" s="2">
+      <c r="V15" s="2">
         <f>VLOOKUP(A15,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>0</v>
       </c>
-      <c r="V15" s="2">
+      <c r="W15" s="2">
         <f>VLOOKUP(A15,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0</v>
       </c>
-      <c r="W15" s="2">
+      <c r="X15" s="2">
         <f>VLOOKUP(A15,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>0</v>
       </c>
-      <c r="X15" s="26" t="str">
+      <c r="Y15" s="26" t="str">
         <f>VLOOKUP(A15,[1]TDSheet!$A$1:$U$65536,21,0)</f>
         <v>нужно увеличить продажи</v>
       </c>
-      <c r="Y15" s="2">
-        <f t="shared" ref="Y15:Y48" si="13">O15*G15</f>
-        <v>0</v>
-      </c>
       <c r="Z15" s="2">
+        <f t="shared" ref="Z15:Z48" si="13">P15*G15</f>
+        <v>0</v>
+      </c>
+      <c r="AA15" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA15" s="24">
+      <c r="AB15" s="24">
         <f>VLOOKUP(A15,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>3</v>
       </c>
-      <c r="AB15" s="25">
+      <c r="AC15" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC15" s="2">
+      <c r="AD15" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD15" s="25">
+      <c r="AE15" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE15" s="2">
+      <c r="AF15" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="8" t="s">
         <v>20</v>
       </c>
@@ -11732,76 +11740,76 @@
         <f>VLOOKUP(A16,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I16" s="2">
+      <c r="J16" s="2">
         <f>VLOOKUP(A16,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>50.6</v>
       </c>
-      <c r="J16" s="2">
+      <c r="K16" s="2">
         <f t="shared" si="2"/>
         <v>-3.8000000000000043</v>
       </c>
-      <c r="L16" s="2">
+      <c r="M16" s="2">
         <f t="shared" si="3"/>
         <v>9.36</v>
       </c>
-      <c r="M16" s="28"/>
-      <c r="N16" s="34">
+      <c r="N16" s="28"/>
+      <c r="O16" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O16" s="42">
+      <c r="P16" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P16" s="43"/>
-      <c r="Q16" s="30"/>
-      <c r="S16" s="2">
+      <c r="Q16" s="43"/>
+      <c r="R16" s="30"/>
+      <c r="T16" s="2">
         <f t="shared" si="5"/>
         <v>0.19230769230769232</v>
       </c>
-      <c r="T16" s="2">
+      <c r="U16" s="2">
         <f t="shared" si="6"/>
         <v>0.19230769230769232</v>
       </c>
-      <c r="U16" s="2">
+      <c r="V16" s="2">
         <f>VLOOKUP(A16,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>2.16</v>
       </c>
-      <c r="V16" s="2">
+      <c r="W16" s="2">
         <f>VLOOKUP(A16,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0.6</v>
       </c>
-      <c r="W16" s="2">
+      <c r="X16" s="2">
         <f>VLOOKUP(A16,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>16.559999999999999</v>
       </c>
-      <c r="Y16" s="2">
+      <c r="Z16" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z16" s="2">
+      <c r="AA16" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA16" s="24">
-        <v>0</v>
-      </c>
-      <c r="AB16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC16" s="2">
+      <c r="AB16" s="24">
+        <v>0</v>
+      </c>
+      <c r="AC16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD16" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD16" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE16" s="2">
+      <c r="AE16" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF16" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="8" t="s">
         <v>21</v>
       </c>
@@ -11826,81 +11834,81 @@
         <f>VLOOKUP(A17,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I17" s="2">
+      <c r="J17" s="2">
         <f>VLOOKUP(A17,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>166.4</v>
       </c>
-      <c r="J17" s="2">
+      <c r="K17" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L17" s="2">
+      <c r="M17" s="2">
         <f t="shared" si="3"/>
         <v>33.28</v>
       </c>
-      <c r="M17" s="28">
-        <f>13*L17-F17</f>
+      <c r="N17" s="28">
+        <f>13*M17-F17</f>
         <v>295.64</v>
       </c>
-      <c r="N17" s="34">
+      <c r="O17" s="34">
         <v>280</v>
       </c>
-      <c r="O17" s="42">
+      <c r="P17" s="42">
         <f t="shared" si="4"/>
         <v>180</v>
       </c>
-      <c r="P17" s="43">
+      <c r="Q17" s="43">
         <v>100</v>
       </c>
-      <c r="Q17" s="30"/>
-      <c r="S17" s="2">
+      <c r="R17" s="30"/>
+      <c r="T17" s="2">
         <f t="shared" si="5"/>
         <v>12.530048076923077</v>
       </c>
-      <c r="T17" s="2">
+      <c r="U17" s="2">
         <f t="shared" si="6"/>
         <v>4.1165865384615383</v>
       </c>
-      <c r="U17" s="2">
+      <c r="V17" s="2">
         <f>VLOOKUP(A17,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>15.559999999999999</v>
       </c>
-      <c r="V17" s="2">
+      <c r="W17" s="2">
         <f>VLOOKUP(A17,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>30.866666666666664</v>
       </c>
-      <c r="W17" s="2">
+      <c r="X17" s="2">
         <f>VLOOKUP(A17,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>13.319999999999999</v>
       </c>
-      <c r="Y17" s="2">
+      <c r="Z17" s="2">
         <f t="shared" si="13"/>
         <v>180</v>
       </c>
-      <c r="Z17" s="2">
+      <c r="AA17" s="2">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="AA17" s="24">
+      <c r="AB17" s="24">
         <f>VLOOKUP(A17,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>3.7</v>
       </c>
-      <c r="AB17" s="25">
+      <c r="AC17" s="25">
         <v>48</v>
       </c>
-      <c r="AC17" s="2">
+      <c r="AD17" s="2">
         <f t="shared" si="8"/>
         <v>177.60000000000002</v>
       </c>
-      <c r="AD17" s="25">
+      <c r="AE17" s="25">
         <v>27</v>
       </c>
-      <c r="AE17" s="2">
+      <c r="AF17" s="2">
         <f t="shared" si="9"/>
         <v>99.9</v>
       </c>
     </row>
-    <row r="18" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="8" t="s">
         <v>22</v>
       </c>
@@ -11922,71 +11930,71 @@
         <f>VLOOKUP(A18,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="J18" s="2">
+      <c r="K18" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L18" s="2">
+      <c r="M18" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M18" s="28"/>
-      <c r="N18" s="34">
+      <c r="N18" s="28"/>
+      <c r="O18" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O18" s="42">
+      <c r="P18" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P18" s="43"/>
-      <c r="Q18" s="30"/>
-      <c r="S18" s="2" t="e">
+      <c r="Q18" s="43"/>
+      <c r="R18" s="30"/>
+      <c r="T18" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T18" s="2" t="e">
+      <c r="U18" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U18" s="2">
+      <c r="V18" s="2">
         <v>2.16</v>
       </c>
-      <c r="V18" s="2">
+      <c r="W18" s="2">
         <v>0.6</v>
       </c>
-      <c r="W18" s="2">
+      <c r="X18" s="2">
         <v>16.559999999999999</v>
       </c>
-      <c r="Y18" s="2">
+      <c r="Z18" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z18" s="2">
+      <c r="AA18" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA18" s="24">
+      <c r="AB18" s="24">
         <v>1.8</v>
       </c>
-      <c r="AB18" s="25">
+      <c r="AC18" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC18" s="2">
+      <c r="AD18" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD18" s="25">
+      <c r="AE18" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE18" s="2">
+      <c r="AF18" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="8" t="s">
         <v>23</v>
       </c>
@@ -12013,79 +12021,79 @@
         <f>VLOOKUP(A19,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I19" s="2">
+      <c r="J19" s="2">
         <f>VLOOKUP(A19,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>303</v>
       </c>
-      <c r="J19" s="2">
+      <c r="K19" s="2">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="L19" s="2">
+      <c r="M19" s="2">
         <f t="shared" si="3"/>
         <v>59.6</v>
       </c>
-      <c r="M19" s="28"/>
-      <c r="N19" s="34">
+      <c r="N19" s="28"/>
+      <c r="O19" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O19" s="42">
+      <c r="P19" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P19" s="43"/>
-      <c r="Q19" s="30"/>
-      <c r="S19" s="2">
+      <c r="Q19" s="43"/>
+      <c r="R19" s="30"/>
+      <c r="T19" s="2">
         <f t="shared" si="5"/>
         <v>18.422818791946309</v>
       </c>
-      <c r="T19" s="2">
+      <c r="U19" s="2">
         <f t="shared" si="6"/>
         <v>18.422818791946309</v>
       </c>
-      <c r="U19" s="2">
+      <c r="V19" s="2">
         <f>VLOOKUP(A19,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>92</v>
       </c>
-      <c r="V19" s="2">
+      <c r="W19" s="2">
         <f>VLOOKUP(A19,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>40</v>
       </c>
-      <c r="W19" s="2">
+      <c r="X19" s="2">
         <f>VLOOKUP(A19,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>140.80000000000001</v>
       </c>
-      <c r="Y19" s="2">
+      <c r="Z19" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z19" s="2">
+      <c r="AA19" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA19" s="24">
+      <c r="AB19" s="24">
         <f>VLOOKUP(A19,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB19" s="25">
+      <c r="AC19" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC19" s="2">
+      <c r="AD19" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD19" s="25">
+      <c r="AE19" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE19" s="2">
+      <c r="AF19" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A20" s="8" t="s">
         <v>24</v>
       </c>
@@ -12112,81 +12120,81 @@
         <f>VLOOKUP(A20,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I20" s="2">
+      <c r="J20" s="2">
         <f>VLOOKUP(A20,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>375</v>
       </c>
-      <c r="J20" s="2">
+      <c r="K20" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L20" s="2">
+      <c r="M20" s="2">
         <f t="shared" si="3"/>
         <v>75.400000000000006</v>
       </c>
-      <c r="M20" s="28">
-        <f>9*L20-F20</f>
+      <c r="N20" s="28">
+        <f>9*M20-F20</f>
         <v>683.6</v>
       </c>
-      <c r="N20" s="34">
+      <c r="O20" s="34">
         <v>660</v>
       </c>
-      <c r="O20" s="42">
+      <c r="P20" s="42">
         <f t="shared" si="4"/>
         <v>360</v>
       </c>
-      <c r="P20" s="43">
+      <c r="Q20" s="43">
         <v>300</v>
       </c>
-      <c r="Q20" s="30"/>
-      <c r="S20" s="2">
+      <c r="R20" s="30"/>
+      <c r="T20" s="2">
         <f t="shared" si="5"/>
         <v>8.6870026525198938</v>
       </c>
-      <c r="T20" s="2">
+      <c r="U20" s="2">
         <f t="shared" si="6"/>
         <v>-6.6312997347480099E-2</v>
       </c>
-      <c r="U20" s="2">
+      <c r="V20" s="2">
         <f>VLOOKUP(A20,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>18.2</v>
       </c>
-      <c r="V20" s="2">
+      <c r="W20" s="2">
         <f>VLOOKUP(A20,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>47.333333333333336</v>
       </c>
-      <c r="W20" s="2">
+      <c r="X20" s="2">
         <f>VLOOKUP(A20,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>39.799999999999997</v>
       </c>
-      <c r="Y20" s="2">
+      <c r="Z20" s="2">
         <f t="shared" si="13"/>
         <v>90</v>
       </c>
-      <c r="Z20" s="2">
+      <c r="AA20" s="2">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="AA20" s="24">
+      <c r="AB20" s="24">
         <f>VLOOKUP(A20,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>6</v>
       </c>
-      <c r="AB20" s="25">
+      <c r="AC20" s="25">
         <v>60</v>
       </c>
-      <c r="AC20" s="2">
+      <c r="AD20" s="2">
         <f t="shared" si="8"/>
         <v>90</v>
       </c>
-      <c r="AD20" s="25">
+      <c r="AE20" s="25">
         <v>50</v>
       </c>
-      <c r="AE20" s="2">
+      <c r="AF20" s="2">
         <f t="shared" si="9"/>
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A21" s="8" t="s">
         <v>25</v>
       </c>
@@ -12213,79 +12221,79 @@
         <f>VLOOKUP(A21,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I21" s="2">
+      <c r="J21" s="2">
         <f>VLOOKUP(A21,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>107</v>
       </c>
-      <c r="J21" s="2">
+      <c r="K21" s="2">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="L21" s="2">
+      <c r="M21" s="2">
         <f t="shared" si="3"/>
         <v>21</v>
       </c>
-      <c r="M21" s="28"/>
-      <c r="N21" s="34">
+      <c r="N21" s="28"/>
+      <c r="O21" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O21" s="42">
+      <c r="P21" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P21" s="43"/>
-      <c r="Q21" s="30"/>
-      <c r="S21" s="2">
+      <c r="Q21" s="43"/>
+      <c r="R21" s="30"/>
+      <c r="T21" s="2">
         <f t="shared" si="5"/>
         <v>57.857142857142854</v>
       </c>
-      <c r="T21" s="2">
+      <c r="U21" s="2">
         <f t="shared" si="6"/>
         <v>57.857142857142854</v>
       </c>
-      <c r="U21" s="2">
+      <c r="V21" s="2">
         <f>VLOOKUP(A21,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>96.8</v>
       </c>
-      <c r="V21" s="2">
+      <c r="W21" s="2">
         <f>VLOOKUP(A21,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>59.333333333333336</v>
       </c>
-      <c r="W21" s="2">
+      <c r="X21" s="2">
         <f>VLOOKUP(A21,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>164.4</v>
       </c>
-      <c r="Y21" s="2">
+      <c r="Z21" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z21" s="2">
+      <c r="AA21" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA21" s="24">
+      <c r="AB21" s="24">
         <f>VLOOKUP(A21,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>6</v>
       </c>
-      <c r="AB21" s="25">
+      <c r="AC21" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC21" s="2">
+      <c r="AD21" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD21" s="25">
+      <c r="AE21" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE21" s="2">
+      <c r="AF21" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A22" s="8" t="s">
         <v>26</v>
       </c>
@@ -12312,82 +12320,82 @@
         <f>VLOOKUP(A22,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I22" s="2">
+      <c r="J22" s="2">
         <f>VLOOKUP(A22,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>769</v>
       </c>
-      <c r="J22" s="2">
+      <c r="K22" s="2">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="L22" s="2">
+      <c r="M22" s="2">
         <f t="shared" si="3"/>
         <v>154</v>
       </c>
-      <c r="M22" s="28">
-        <f>11*L22-F22</f>
+      <c r="N22" s="28">
+        <f>11*M22-F22</f>
         <v>1402</v>
       </c>
-      <c r="N22" s="34">
+      <c r="O22" s="34">
         <f t="shared" si="10"/>
         <v>1402</v>
       </c>
-      <c r="O22" s="42">
+      <c r="P22" s="42">
         <f t="shared" si="4"/>
         <v>802</v>
       </c>
-      <c r="P22" s="43">
+      <c r="Q22" s="43">
         <v>600</v>
       </c>
-      <c r="Q22" s="30"/>
-      <c r="S22" s="2">
+      <c r="R22" s="30"/>
+      <c r="T22" s="2">
         <f t="shared" si="5"/>
         <v>11</v>
       </c>
-      <c r="T22" s="2">
+      <c r="U22" s="2">
         <f t="shared" si="6"/>
         <v>1.8961038961038961</v>
       </c>
-      <c r="U22" s="2">
+      <c r="V22" s="2">
         <f>VLOOKUP(A22,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>109</v>
       </c>
-      <c r="V22" s="2">
+      <c r="W22" s="2">
         <f>VLOOKUP(A22,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>148.66666666666666</v>
       </c>
-      <c r="W22" s="2">
+      <c r="X22" s="2">
         <f>VLOOKUP(A22,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>119.6</v>
       </c>
-      <c r="Y22" s="2">
+      <c r="Z22" s="2">
         <f t="shared" si="13"/>
         <v>200.5</v>
       </c>
-      <c r="Z22" s="2">
+      <c r="AA22" s="2">
         <f t="shared" si="7"/>
         <v>150</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AB22" s="24">
         <f>VLOOKUP(A22,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB22" s="25">
+      <c r="AC22" s="25">
         <v>66</v>
       </c>
-      <c r="AC22" s="2">
+      <c r="AD22" s="2">
         <f t="shared" si="8"/>
         <v>198</v>
       </c>
-      <c r="AD22" s="25">
+      <c r="AE22" s="25">
         <v>50</v>
       </c>
-      <c r="AE22" s="2">
+      <c r="AF22" s="2">
         <f t="shared" si="9"/>
         <v>150</v>
       </c>
     </row>
-    <row r="23" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A23" s="8" t="s">
         <v>27</v>
       </c>
@@ -12414,83 +12422,83 @@
         <f>VLOOKUP(A23,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I23" s="2">
+      <c r="J23" s="2">
         <f>VLOOKUP(A23,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>3</v>
       </c>
-      <c r="J23" s="2">
+      <c r="K23" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L23" s="2">
+      <c r="M23" s="2">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="M23" s="28"/>
-      <c r="N23" s="34">
+      <c r="N23" s="28"/>
+      <c r="O23" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O23" s="42">
+      <c r="P23" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="30"/>
-      <c r="S23" s="2">
+      <c r="Q23" s="43"/>
+      <c r="R23" s="30"/>
+      <c r="T23" s="2">
         <f t="shared" si="5"/>
         <v>55</v>
       </c>
-      <c r="T23" s="2">
+      <c r="U23" s="2">
         <f t="shared" si="6"/>
         <v>55</v>
       </c>
-      <c r="U23" s="2">
+      <c r="V23" s="2">
         <f>VLOOKUP(A23,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>0</v>
       </c>
-      <c r="V23" s="2">
+      <c r="W23" s="2">
         <f>VLOOKUP(A23,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0</v>
       </c>
-      <c r="W23" s="2">
+      <c r="X23" s="2">
         <f>VLOOKUP(A23,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>2.4</v>
       </c>
-      <c r="X23" s="27" t="str">
+      <c r="Y23" s="27" t="str">
         <f>VLOOKUP(A23,[1]TDSheet!$A$1:$U$65536,21,0)</f>
         <v>новинка/ согласовал Химич</v>
       </c>
-      <c r="Y23" s="2">
+      <c r="Z23" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z23" s="2">
+      <c r="AA23" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA23" s="24">
+      <c r="AB23" s="24">
         <f>VLOOKUP(A23,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB23" s="25">
+      <c r="AC23" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC23" s="2">
+      <c r="AD23" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD23" s="25">
+      <c r="AE23" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE23" s="2">
+      <c r="AF23" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A24" s="8" t="s">
         <v>28</v>
       </c>
@@ -12517,79 +12525,79 @@
         <f>VLOOKUP(A24,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I24" s="2">
+      <c r="J24" s="2">
         <f>VLOOKUP(A24,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>145</v>
       </c>
-      <c r="J24" s="2">
+      <c r="K24" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L24" s="2">
+      <c r="M24" s="2">
         <f t="shared" si="3"/>
         <v>29.4</v>
       </c>
-      <c r="M24" s="28"/>
-      <c r="N24" s="34">
+      <c r="N24" s="28"/>
+      <c r="O24" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O24" s="42">
+      <c r="P24" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P24" s="43"/>
-      <c r="Q24" s="30"/>
-      <c r="S24" s="2">
+      <c r="Q24" s="43"/>
+      <c r="R24" s="30"/>
+      <c r="T24" s="2">
         <f t="shared" si="5"/>
         <v>17.176870748299322</v>
       </c>
-      <c r="T24" s="2">
+      <c r="U24" s="2">
         <f t="shared" si="6"/>
         <v>17.176870748299322</v>
       </c>
-      <c r="U24" s="2">
+      <c r="V24" s="2">
         <f>VLOOKUP(A24,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>22.8</v>
       </c>
-      <c r="V24" s="2">
+      <c r="W24" s="2">
         <f>VLOOKUP(A24,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>10</v>
       </c>
-      <c r="W24" s="2">
+      <c r="X24" s="2">
         <f>VLOOKUP(A24,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>59.4</v>
       </c>
-      <c r="Y24" s="2">
+      <c r="Z24" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z24" s="2">
+      <c r="AA24" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA24" s="24">
+      <c r="AB24" s="24">
         <f>VLOOKUP(A24,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>6</v>
       </c>
-      <c r="AB24" s="25">
+      <c r="AC24" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC24" s="2">
+      <c r="AD24" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD24" s="25">
+      <c r="AE24" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE24" s="2">
+      <c r="AF24" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A25" s="8" t="s">
         <v>29</v>
       </c>
@@ -12612,73 +12620,73 @@
         <f>VLOOKUP(A25,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="J25" s="2">
+      <c r="K25" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L25" s="2">
+      <c r="M25" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M25" s="28"/>
-      <c r="N25" s="34">
+      <c r="N25" s="28"/>
+      <c r="O25" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O25" s="42">
+      <c r="P25" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P25" s="43"/>
-      <c r="Q25" s="30"/>
-      <c r="S25" s="2" t="e">
+      <c r="Q25" s="43"/>
+      <c r="R25" s="30"/>
+      <c r="T25" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T25" s="2" t="e">
+      <c r="U25" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U25" s="2">
+      <c r="V25" s="2">
         <f>VLOOKUP(A25,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>0</v>
       </c>
-      <c r="V25" s="2">
+      <c r="W25" s="2">
         <f>VLOOKUP(A25,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0</v>
       </c>
-      <c r="W25" s="2">
+      <c r="X25" s="2">
         <f>VLOOKUP(A25,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>0</v>
       </c>
-      <c r="Y25" s="2">
+      <c r="Z25" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z25" s="2">
+      <c r="AA25" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA25" s="24">
+      <c r="AB25" s="24">
         <f>VLOOKUP(A25,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>0</v>
       </c>
-      <c r="AB25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AC25" s="2">
+      <c r="AC25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AD25" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD25" s="25">
-        <v>0</v>
-      </c>
-      <c r="AE25" s="2">
+      <c r="AE25" s="25">
+        <v>0</v>
+      </c>
+      <c r="AF25" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A26" s="8" t="s">
         <v>30</v>
       </c>
@@ -12705,83 +12713,83 @@
         <f>VLOOKUP(A26,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I26" s="2">
+      <c r="J26" s="2">
         <f>VLOOKUP(A26,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>135</v>
       </c>
-      <c r="J26" s="2">
+      <c r="K26" s="2">
         <f t="shared" si="2"/>
         <v>-2</v>
       </c>
-      <c r="L26" s="2">
+      <c r="M26" s="2">
         <f t="shared" si="3"/>
         <v>26.6</v>
       </c>
-      <c r="M26" s="28"/>
-      <c r="N26" s="34">
+      <c r="N26" s="28"/>
+      <c r="O26" s="34">
         <v>320</v>
       </c>
-      <c r="O26" s="42">
+      <c r="P26" s="42">
         <f t="shared" si="4"/>
         <v>220</v>
       </c>
-      <c r="P26" s="43">
+      <c r="Q26" s="43">
         <v>100</v>
       </c>
-      <c r="Q26" s="30">
+      <c r="R26" s="30">
         <v>800</v>
       </c>
-      <c r="R26" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="S26" s="2">
+      <c r="S26" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="T26" s="2">
         <f t="shared" si="5"/>
         <v>29.473684210526315</v>
       </c>
-      <c r="T26" s="2">
+      <c r="U26" s="2">
         <f t="shared" si="6"/>
         <v>17.443609022556391</v>
       </c>
-      <c r="U26" s="2">
+      <c r="V26" s="2">
         <f>VLOOKUP(A26,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>34</v>
       </c>
-      <c r="V26" s="2">
+      <c r="W26" s="2">
         <f>VLOOKUP(A26,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>18.666666666666668</v>
       </c>
-      <c r="W26" s="2">
+      <c r="X26" s="2">
         <f>VLOOKUP(A26,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>53.4</v>
       </c>
-      <c r="Y26" s="2">
+      <c r="Z26" s="2">
         <f t="shared" si="13"/>
         <v>165</v>
       </c>
-      <c r="Z26" s="2">
+      <c r="AA26" s="2">
         <f t="shared" si="7"/>
         <v>75</v>
       </c>
-      <c r="AA26" s="24">
+      <c r="AB26" s="24">
         <f>VLOOKUP(A26,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>8</v>
       </c>
-      <c r="AB26" s="25">
+      <c r="AC26" s="25">
         <v>27</v>
       </c>
-      <c r="AC26" s="2">
+      <c r="AD26" s="2">
         <f t="shared" si="8"/>
         <v>162</v>
       </c>
-      <c r="AD26" s="25">
+      <c r="AE26" s="25">
         <v>12</v>
       </c>
-      <c r="AE26" s="2">
+      <c r="AF26" s="2">
         <f t="shared" si="9"/>
         <v>72</v>
       </c>
     </row>
-    <row r="27" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A27" s="8" t="s">
         <v>31</v>
       </c>
@@ -12804,81 +12812,81 @@
         <f>VLOOKUP(A27,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I27" s="2">
+      <c r="J27" s="2">
         <f>VLOOKUP(A27,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>452</v>
       </c>
-      <c r="J27" s="2">
+      <c r="K27" s="2">
         <f t="shared" si="2"/>
         <v>-4</v>
       </c>
-      <c r="L27" s="2">
+      <c r="M27" s="2">
         <f t="shared" si="3"/>
         <v>89.6</v>
       </c>
-      <c r="M27" s="28">
-        <f>9*L27-F27</f>
+      <c r="N27" s="28">
+        <f>9*M27-F27</f>
         <v>806.4</v>
       </c>
-      <c r="N27" s="34">
+      <c r="O27" s="34">
         <v>750</v>
       </c>
-      <c r="O27" s="42">
+      <c r="P27" s="42">
         <f t="shared" si="4"/>
         <v>450</v>
       </c>
-      <c r="P27" s="43">
+      <c r="Q27" s="43">
         <v>300</v>
       </c>
-      <c r="Q27" s="30"/>
-      <c r="S27" s="2">
+      <c r="R27" s="30"/>
+      <c r="T27" s="2">
         <f t="shared" si="5"/>
         <v>8.3705357142857153</v>
       </c>
-      <c r="T27" s="2">
+      <c r="U27" s="2">
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-      <c r="U27" s="2">
+      <c r="V27" s="2">
         <f>VLOOKUP(A27,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>21.8</v>
       </c>
-      <c r="V27" s="2">
+      <c r="W27" s="2">
         <f>VLOOKUP(A27,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>43.666666666666664</v>
       </c>
-      <c r="W27" s="2">
+      <c r="X27" s="2">
         <f>VLOOKUP(A27,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>0</v>
       </c>
-      <c r="Y27" s="2">
+      <c r="Z27" s="2">
         <f t="shared" si="13"/>
         <v>405</v>
       </c>
-      <c r="Z27" s="2">
+      <c r="AA27" s="2">
         <f t="shared" si="7"/>
         <v>270</v>
       </c>
-      <c r="AA27" s="24">
+      <c r="AB27" s="24">
         <f>VLOOKUP(A27,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>8</v>
       </c>
-      <c r="AB27" s="25">
+      <c r="AC27" s="25">
         <v>56</v>
       </c>
-      <c r="AC27" s="2">
+      <c r="AD27" s="2">
         <f t="shared" si="8"/>
         <v>403.2</v>
       </c>
-      <c r="AD27" s="25">
+      <c r="AE27" s="25">
         <v>37</v>
       </c>
-      <c r="AE27" s="2">
+      <c r="AF27" s="2">
         <f t="shared" si="9"/>
         <v>266.40000000000003</v>
       </c>
     </row>
-    <row r="28" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A28" s="8" t="s">
         <v>32</v>
       </c>
@@ -12905,81 +12913,81 @@
         <f>VLOOKUP(A28,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I28" s="2">
+      <c r="J28" s="2">
         <f>VLOOKUP(A28,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>1136</v>
       </c>
-      <c r="J28" s="2">
+      <c r="K28" s="2">
         <f t="shared" si="2"/>
         <v>-19</v>
       </c>
-      <c r="L28" s="2">
+      <c r="M28" s="2">
         <f t="shared" si="3"/>
         <v>223.4</v>
       </c>
-      <c r="M28" s="28">
-        <f>12*L28-F28</f>
+      <c r="N28" s="28">
+        <f>12*M28-F28</f>
         <v>2114.8000000000002</v>
       </c>
-      <c r="N28" s="34">
+      <c r="O28" s="34">
         <v>2000</v>
       </c>
-      <c r="O28" s="42">
+      <c r="P28" s="42">
         <f t="shared" si="4"/>
         <v>1200</v>
       </c>
-      <c r="P28" s="43">
+      <c r="Q28" s="43">
         <v>800</v>
       </c>
-      <c r="Q28" s="30"/>
-      <c r="S28" s="2">
+      <c r="R28" s="30"/>
+      <c r="T28" s="2">
         <f t="shared" si="5"/>
         <v>11.486123545210384</v>
       </c>
-      <c r="T28" s="2">
+      <c r="U28" s="2">
         <f t="shared" si="6"/>
         <v>2.5335720680393909</v>
       </c>
-      <c r="U28" s="2">
+      <c r="V28" s="2">
         <f>VLOOKUP(A28,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>148.80000000000001</v>
       </c>
-      <c r="V28" s="2">
+      <c r="W28" s="2">
         <f>VLOOKUP(A28,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>125</v>
       </c>
-      <c r="W28" s="2">
+      <c r="X28" s="2">
         <f>VLOOKUP(A28,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>132.80000000000001</v>
       </c>
-      <c r="Y28" s="2">
+      <c r="Z28" s="2">
         <f t="shared" si="13"/>
         <v>1080</v>
       </c>
-      <c r="Z28" s="2">
+      <c r="AA28" s="2">
         <f t="shared" si="7"/>
         <v>720</v>
       </c>
-      <c r="AA28" s="24">
+      <c r="AB28" s="24">
         <f>VLOOKUP(A28,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>8</v>
       </c>
-      <c r="AB28" s="25">
+      <c r="AC28" s="25">
         <v>150</v>
       </c>
-      <c r="AC28" s="2">
+      <c r="AD28" s="2">
         <f t="shared" si="8"/>
         <v>1080</v>
       </c>
-      <c r="AD28" s="25">
+      <c r="AE28" s="25">
         <v>100</v>
       </c>
-      <c r="AE28" s="2">
+      <c r="AF28" s="2">
         <f t="shared" si="9"/>
         <v>720</v>
       </c>
     </row>
-    <row r="29" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A29" s="8" t="s">
         <v>33</v>
       </c>
@@ -13004,81 +13012,81 @@
         <f>VLOOKUP(A29,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I29" s="2">
+      <c r="J29" s="2">
         <f>VLOOKUP(A29,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>429</v>
       </c>
-      <c r="J29" s="2">
+      <c r="K29" s="2">
         <f t="shared" si="2"/>
         <v>-96</v>
       </c>
-      <c r="L29" s="2">
+      <c r="M29" s="2">
         <f t="shared" si="3"/>
         <v>66.599999999999994</v>
       </c>
-      <c r="M29" s="28">
-        <f>11*L29-F29</f>
+      <c r="N29" s="28">
+        <f>11*M29-F29</f>
         <v>601.59999999999991</v>
       </c>
-      <c r="N29" s="34">
+      <c r="O29" s="34">
         <v>550</v>
       </c>
-      <c r="O29" s="42">
+      <c r="P29" s="42">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="P29" s="43">
+      <c r="Q29" s="43">
         <v>200</v>
       </c>
-      <c r="Q29" s="30"/>
-      <c r="S29" s="2">
+      <c r="R29" s="30"/>
+      <c r="T29" s="2">
         <f t="shared" si="5"/>
         <v>10.225225225225227</v>
       </c>
-      <c r="T29" s="2">
+      <c r="U29" s="2">
         <f t="shared" si="6"/>
         <v>1.9669669669669672</v>
       </c>
-      <c r="U29" s="2">
+      <c r="V29" s="2">
         <f>VLOOKUP(A29,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>13.4</v>
       </c>
-      <c r="V29" s="2">
+      <c r="W29" s="2">
         <f>VLOOKUP(A29,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>52.333333333333336</v>
       </c>
-      <c r="W29" s="2">
+      <c r="X29" s="2">
         <f>VLOOKUP(A29,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>0</v>
       </c>
-      <c r="Y29" s="2">
+      <c r="Z29" s="2">
         <f t="shared" si="13"/>
         <v>150.5</v>
       </c>
-      <c r="Z29" s="2">
+      <c r="AA29" s="2">
         <f t="shared" si="7"/>
         <v>86</v>
       </c>
-      <c r="AA29" s="24">
+      <c r="AB29" s="24">
         <f>VLOOKUP(A29,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>16</v>
       </c>
-      <c r="AB29" s="25">
+      <c r="AC29" s="25">
         <v>21</v>
       </c>
-      <c r="AC29" s="2">
+      <c r="AD29" s="2">
         <f t="shared" si="8"/>
         <v>144.47999999999999</v>
       </c>
-      <c r="AD29" s="25">
+      <c r="AE29" s="25">
         <v>12</v>
       </c>
-      <c r="AE29" s="2">
+      <c r="AF29" s="2">
         <f t="shared" si="9"/>
         <v>82.56</v>
       </c>
     </row>
-    <row r="30" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A30" s="8" t="s">
         <v>34</v>
       </c>
@@ -13105,86 +13113,86 @@
         <f>VLOOKUP(A30,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I30" s="2">
+      <c r="J30" s="2">
         <f>VLOOKUP(A30,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>1720</v>
       </c>
-      <c r="J30" s="2">
+      <c r="K30" s="2">
         <f t="shared" si="2"/>
         <v>-5</v>
       </c>
-      <c r="L30" s="2">
+      <c r="M30" s="2">
         <f t="shared" si="3"/>
         <v>343</v>
       </c>
-      <c r="M30" s="28">
-        <f t="shared" ref="M30:M46" si="14">14*L30-F30</f>
+      <c r="N30" s="28">
+        <f t="shared" ref="N30:N46" si="14">14*M30-F30</f>
         <v>3012</v>
       </c>
-      <c r="N30" s="34">
+      <c r="O30" s="34">
         <v>3700</v>
       </c>
-      <c r="O30" s="42">
+      <c r="P30" s="42">
         <f t="shared" si="4"/>
         <v>2300</v>
       </c>
-      <c r="P30" s="43">
+      <c r="Q30" s="43">
         <v>1400</v>
       </c>
-      <c r="Q30" s="30">
+      <c r="R30" s="30">
         <v>4000</v>
       </c>
-      <c r="R30" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="S30" s="2">
+      <c r="S30" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="T30" s="2">
         <f t="shared" si="5"/>
         <v>16.005830903790088</v>
       </c>
-      <c r="T30" s="2">
+      <c r="U30" s="2">
         <f t="shared" si="6"/>
         <v>5.2186588921282802</v>
       </c>
-      <c r="U30" s="2">
+      <c r="V30" s="2">
         <f>VLOOKUP(A30,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>218</v>
       </c>
-      <c r="V30" s="2">
+      <c r="W30" s="2">
         <f>VLOOKUP(A30,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>450</v>
       </c>
-      <c r="W30" s="2">
+      <c r="X30" s="2">
         <f>VLOOKUP(A30,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>209</v>
       </c>
-      <c r="Y30" s="2">
+      <c r="Z30" s="2">
         <f t="shared" si="13"/>
         <v>2300</v>
       </c>
-      <c r="Z30" s="2">
+      <c r="AA30" s="2">
         <f t="shared" si="7"/>
         <v>1400</v>
       </c>
-      <c r="AA30" s="24">
+      <c r="AB30" s="24">
         <f>VLOOKUP(A30,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>5</v>
       </c>
-      <c r="AB30" s="25">
+      <c r="AC30" s="25">
         <v>460</v>
       </c>
-      <c r="AC30" s="2">
+      <c r="AD30" s="2">
         <f t="shared" si="8"/>
         <v>2300</v>
       </c>
-      <c r="AD30" s="25">
+      <c r="AE30" s="25">
         <v>280</v>
       </c>
-      <c r="AE30" s="2">
+      <c r="AF30" s="2">
         <f t="shared" si="9"/>
         <v>1400</v>
       </c>
     </row>
-    <row r="31" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A31" s="8" t="s">
         <v>35</v>
       </c>
@@ -13211,81 +13219,81 @@
         <f>VLOOKUP(A31,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I31" s="2">
+      <c r="J31" s="2">
         <f>VLOOKUP(A31,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>2128</v>
       </c>
-      <c r="J31" s="2">
+      <c r="K31" s="2">
         <f t="shared" si="2"/>
         <v>-160</v>
       </c>
-      <c r="L31" s="2">
+      <c r="M31" s="2">
         <f t="shared" si="3"/>
         <v>393.6</v>
       </c>
-      <c r="M31" s="28">
+      <c r="N31" s="28">
         <f t="shared" si="14"/>
         <v>3432.4000000000005</v>
       </c>
-      <c r="N31" s="34">
+      <c r="O31" s="34">
         <v>3200</v>
       </c>
-      <c r="O31" s="42">
+      <c r="P31" s="42">
         <f t="shared" si="4"/>
         <v>1800</v>
       </c>
-      <c r="P31" s="43">
+      <c r="Q31" s="43">
         <v>1400</v>
       </c>
-      <c r="Q31" s="30"/>
-      <c r="S31" s="2">
+      <c r="R31" s="30"/>
+      <c r="T31" s="2">
         <f t="shared" si="5"/>
         <v>13.409552845528454</v>
       </c>
-      <c r="T31" s="2">
+      <c r="U31" s="2">
         <f t="shared" si="6"/>
         <v>5.279471544715447</v>
       </c>
-      <c r="U31" s="2">
+      <c r="V31" s="2">
         <f>VLOOKUP(A31,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>254.8</v>
       </c>
-      <c r="V31" s="2">
+      <c r="W31" s="2">
         <f>VLOOKUP(A31,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>234</v>
       </c>
-      <c r="W31" s="2">
+      <c r="X31" s="2">
         <f>VLOOKUP(A31,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>311.39999999999998</v>
       </c>
-      <c r="Y31" s="2">
+      <c r="Z31" s="2">
         <f t="shared" si="13"/>
         <v>1620</v>
       </c>
-      <c r="Z31" s="2">
+      <c r="AA31" s="2">
         <f t="shared" si="7"/>
         <v>1260</v>
       </c>
-      <c r="AA31" s="24">
+      <c r="AB31" s="24">
         <f>VLOOKUP(A31,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>8</v>
       </c>
-      <c r="AB31" s="25">
+      <c r="AC31" s="25">
         <v>225</v>
       </c>
-      <c r="AC31" s="2">
+      <c r="AD31" s="2">
         <f t="shared" si="8"/>
         <v>1620</v>
       </c>
-      <c r="AD31" s="25">
+      <c r="AE31" s="25">
         <v>175</v>
       </c>
-      <c r="AE31" s="2">
+      <c r="AF31" s="2">
         <f t="shared" si="9"/>
         <v>1260</v>
       </c>
     </row>
-    <row r="32" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A32" s="8" t="s">
         <v>36</v>
       </c>
@@ -13310,81 +13318,81 @@
         <f>VLOOKUP(A32,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I32" s="2">
+      <c r="J32" s="2">
         <f>VLOOKUP(A32,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>398</v>
       </c>
-      <c r="J32" s="2">
+      <c r="K32" s="2">
         <f t="shared" si="2"/>
         <v>-24</v>
       </c>
-      <c r="L32" s="2">
+      <c r="M32" s="2">
         <f t="shared" si="3"/>
         <v>74.8</v>
       </c>
-      <c r="M32" s="28">
-        <f>11*L32-F32</f>
+      <c r="N32" s="28">
+        <f>11*M32-F32</f>
         <v>668.8</v>
       </c>
-      <c r="N32" s="34">
+      <c r="O32" s="34">
         <v>650</v>
       </c>
-      <c r="O32" s="42">
+      <c r="P32" s="42">
         <f t="shared" si="4"/>
         <v>350</v>
       </c>
-      <c r="P32" s="43">
+      <c r="Q32" s="43">
         <v>300</v>
       </c>
-      <c r="Q32" s="30"/>
-      <c r="S32" s="2">
+      <c r="R32" s="30"/>
+      <c r="T32" s="2">
         <f t="shared" si="5"/>
         <v>10.748663101604279</v>
       </c>
-      <c r="T32" s="2">
+      <c r="U32" s="2">
         <f t="shared" si="6"/>
         <v>2.0588235294117649</v>
       </c>
-      <c r="U32" s="2">
+      <c r="V32" s="2">
         <f>VLOOKUP(A32,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>25.4</v>
       </c>
-      <c r="V32" s="2">
+      <c r="W32" s="2">
         <f>VLOOKUP(A32,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>76.666666666666671</v>
       </c>
-      <c r="W32" s="2">
+      <c r="X32" s="2">
         <f>VLOOKUP(A32,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>11.6</v>
       </c>
-      <c r="Y32" s="2">
+      <c r="Z32" s="2">
         <f t="shared" si="13"/>
         <v>150.5</v>
       </c>
-      <c r="Z32" s="2">
+      <c r="AA32" s="2">
         <f t="shared" si="7"/>
         <v>129</v>
       </c>
-      <c r="AA32" s="24">
+      <c r="AB32" s="24">
         <f>VLOOKUP(A32,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>16</v>
       </c>
-      <c r="AB32" s="25">
+      <c r="AC32" s="25">
         <v>21</v>
       </c>
-      <c r="AC32" s="2">
+      <c r="AD32" s="2">
         <f t="shared" si="8"/>
         <v>144.47999999999999</v>
       </c>
-      <c r="AD32" s="25">
+      <c r="AE32" s="25">
         <v>18</v>
       </c>
-      <c r="AE32" s="2">
+      <c r="AF32" s="2">
         <f t="shared" si="9"/>
         <v>123.84</v>
       </c>
     </row>
-    <row r="33" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A33" s="8" t="s">
         <v>37</v>
       </c>
@@ -13411,81 +13419,81 @@
         <f>VLOOKUP(A33,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I33" s="2">
+      <c r="J33" s="2">
         <f>VLOOKUP(A33,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>652</v>
       </c>
-      <c r="J33" s="2">
+      <c r="K33" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L33" s="2">
+      <c r="M33" s="2">
         <f t="shared" si="3"/>
         <v>130.80000000000001</v>
       </c>
-      <c r="M33" s="28">
+      <c r="N33" s="28">
         <f t="shared" si="14"/>
         <v>944.20000000000027</v>
       </c>
-      <c r="N33" s="34">
+      <c r="O33" s="34">
         <v>900</v>
       </c>
-      <c r="O33" s="42">
+      <c r="P33" s="42">
         <f t="shared" si="4"/>
         <v>500</v>
       </c>
-      <c r="P33" s="43">
+      <c r="Q33" s="43">
         <v>400</v>
       </c>
-      <c r="Q33" s="30"/>
-      <c r="S33" s="2">
+      <c r="R33" s="30"/>
+      <c r="T33" s="2">
         <f t="shared" si="5"/>
         <v>13.662079510703363</v>
       </c>
-      <c r="T33" s="2">
+      <c r="U33" s="2">
         <f t="shared" si="6"/>
         <v>6.781345565749235</v>
       </c>
-      <c r="U33" s="2">
+      <c r="V33" s="2">
         <f>VLOOKUP(A33,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>84.6</v>
       </c>
-      <c r="V33" s="2">
+      <c r="W33" s="2">
         <f>VLOOKUP(A33,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>36.333333333333336</v>
       </c>
-      <c r="W33" s="2">
+      <c r="X33" s="2">
         <f>VLOOKUP(A33,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>118.4</v>
       </c>
-      <c r="Y33" s="2">
+      <c r="Z33" s="2">
         <f t="shared" si="13"/>
         <v>350</v>
       </c>
-      <c r="Z33" s="2">
+      <c r="AA33" s="2">
         <f t="shared" si="7"/>
         <v>280</v>
       </c>
-      <c r="AA33" s="24">
+      <c r="AB33" s="24">
         <f>VLOOKUP(A33,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>8</v>
       </c>
-      <c r="AB33" s="25">
+      <c r="AC33" s="25">
         <v>62</v>
       </c>
-      <c r="AC33" s="2">
+      <c r="AD33" s="2">
         <f t="shared" si="8"/>
         <v>347.2</v>
       </c>
-      <c r="AD33" s="25">
+      <c r="AE33" s="25">
         <v>50</v>
       </c>
-      <c r="AE33" s="2">
+      <c r="AF33" s="2">
         <f t="shared" si="9"/>
         <v>280</v>
       </c>
     </row>
-    <row r="34" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
         <v>38</v>
       </c>
@@ -13512,86 +13520,86 @@
         <f>VLOOKUP(A34,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I34" s="2">
+      <c r="J34" s="2">
         <f>VLOOKUP(A34,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>21</v>
       </c>
-      <c r="J34" s="2">
+      <c r="K34" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L34" s="2">
+      <c r="M34" s="2">
         <f t="shared" si="3"/>
         <v>4.2</v>
       </c>
-      <c r="M34" s="28">
+      <c r="N34" s="28">
         <f t="shared" si="14"/>
         <v>7.8000000000000043</v>
       </c>
-      <c r="N34" s="34">
+      <c r="O34" s="34">
         <v>160</v>
       </c>
-      <c r="O34" s="42">
+      <c r="P34" s="42">
         <f t="shared" si="4"/>
         <v>120</v>
       </c>
-      <c r="P34" s="43">
+      <c r="Q34" s="43">
         <v>40</v>
       </c>
-      <c r="Q34" s="30">
+      <c r="R34" s="30">
         <v>160</v>
       </c>
-      <c r="R34" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="S34" s="2">
+      <c r="S34" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="T34" s="2">
         <f t="shared" si="5"/>
         <v>50.238095238095234</v>
       </c>
-      <c r="T34" s="2">
+      <c r="U34" s="2">
         <f t="shared" si="6"/>
         <v>12.142857142857142</v>
       </c>
-      <c r="U34" s="2">
+      <c r="V34" s="2">
         <f>VLOOKUP(A34,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>0</v>
       </c>
-      <c r="V34" s="2">
+      <c r="W34" s="2">
         <f>VLOOKUP(A34,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>2</v>
       </c>
-      <c r="W34" s="2">
+      <c r="X34" s="2">
         <f>VLOOKUP(A34,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>9.1999999999999993</v>
       </c>
-      <c r="Y34" s="2">
+      <c r="Z34" s="2">
         <f t="shared" si="13"/>
         <v>108</v>
       </c>
-      <c r="Z34" s="2">
+      <c r="AA34" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="AA34" s="24">
+      <c r="AB34" s="24">
         <f>VLOOKUP(A34,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>8</v>
       </c>
-      <c r="AB34" s="25">
+      <c r="AC34" s="25">
         <v>15</v>
       </c>
-      <c r="AC34" s="2">
+      <c r="AD34" s="2">
         <f t="shared" si="8"/>
         <v>108</v>
       </c>
-      <c r="AD34" s="25">
+      <c r="AE34" s="25">
         <v>5</v>
       </c>
-      <c r="AE34" s="2">
+      <c r="AF34" s="2">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
-    <row r="35" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
         <v>39</v>
       </c>
@@ -13618,83 +13626,83 @@
         <f>VLOOKUP(A35,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I35" s="2">
+      <c r="J35" s="2">
         <f>VLOOKUP(A35,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>57</v>
       </c>
-      <c r="J35" s="2">
+      <c r="K35" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L35" s="2">
+      <c r="M35" s="2">
         <f t="shared" si="3"/>
         <v>11.4</v>
       </c>
-      <c r="M35" s="28"/>
-      <c r="N35" s="34">
+      <c r="N35" s="28"/>
+      <c r="O35" s="34">
         <v>100</v>
       </c>
-      <c r="O35" s="42">
+      <c r="P35" s="42">
         <f t="shared" si="4"/>
         <v>60</v>
       </c>
-      <c r="P35" s="43">
+      <c r="Q35" s="43">
         <v>40</v>
       </c>
-      <c r="Q35" s="30">
+      <c r="R35" s="30">
         <v>320</v>
       </c>
-      <c r="R35" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="S35" s="2">
+      <c r="S35" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="T35" s="2">
         <f t="shared" si="5"/>
         <v>28.421052631578945</v>
       </c>
-      <c r="T35" s="2">
+      <c r="U35" s="2">
         <f t="shared" si="6"/>
         <v>19.649122807017545</v>
       </c>
-      <c r="U35" s="2">
+      <c r="V35" s="2">
         <f>VLOOKUP(A35,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>17.600000000000001</v>
       </c>
-      <c r="V35" s="2">
+      <c r="W35" s="2">
         <f>VLOOKUP(A35,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>7.666666666666667</v>
       </c>
-      <c r="W35" s="2">
+      <c r="X35" s="2">
         <f>VLOOKUP(A35,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>34.4</v>
       </c>
-      <c r="Y35" s="2">
+      <c r="Z35" s="2">
         <f t="shared" si="13"/>
         <v>54</v>
       </c>
-      <c r="Z35" s="2">
+      <c r="AA35" s="2">
         <f t="shared" si="7"/>
         <v>36</v>
       </c>
-      <c r="AA35" s="24">
+      <c r="AB35" s="24">
         <f>VLOOKUP(A35,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>8</v>
       </c>
-      <c r="AB35" s="25">
+      <c r="AC35" s="25">
         <v>7</v>
       </c>
-      <c r="AC35" s="2">
+      <c r="AD35" s="2">
         <f t="shared" si="8"/>
         <v>50.4</v>
       </c>
-      <c r="AD35" s="25">
+      <c r="AE35" s="25">
         <v>5</v>
       </c>
-      <c r="AE35" s="2">
+      <c r="AF35" s="2">
         <f t="shared" si="9"/>
         <v>36</v>
       </c>
     </row>
-    <row r="36" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A36" s="8" t="s">
         <v>40</v>
       </c>
@@ -13721,86 +13729,86 @@
         <f>VLOOKUP(A36,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I36" s="2">
+      <c r="J36" s="2">
         <f>VLOOKUP(A36,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>1635</v>
       </c>
-      <c r="J36" s="2">
+      <c r="K36" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
       </c>
-      <c r="L36" s="2">
+      <c r="M36" s="2">
         <f t="shared" si="3"/>
         <v>329</v>
       </c>
-      <c r="M36" s="28">
+      <c r="N36" s="28">
         <f t="shared" si="14"/>
         <v>2811</v>
       </c>
-      <c r="N36" s="34">
+      <c r="O36" s="34">
         <v>3600</v>
       </c>
-      <c r="O36" s="42">
+      <c r="P36" s="42">
         <f t="shared" si="4"/>
         <v>2600</v>
       </c>
-      <c r="P36" s="43">
+      <c r="Q36" s="43">
         <v>1000</v>
       </c>
-      <c r="Q36" s="30">
+      <c r="R36" s="30">
         <v>4000</v>
       </c>
-      <c r="R36" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="S36" s="2">
+      <c r="S36" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="T36" s="2">
         <f t="shared" si="5"/>
         <v>16.398176291793312</v>
       </c>
-      <c r="T36" s="2">
+      <c r="U36" s="2">
         <f t="shared" si="6"/>
         <v>5.4559270516717326</v>
       </c>
-      <c r="U36" s="2">
+      <c r="V36" s="2">
         <f>VLOOKUP(A36,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>307</v>
       </c>
-      <c r="V36" s="2">
+      <c r="W36" s="2">
         <f>VLOOKUP(A36,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>155</v>
       </c>
-      <c r="W36" s="2">
+      <c r="X36" s="2">
         <f>VLOOKUP(A36,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>246</v>
       </c>
-      <c r="Y36" s="2">
+      <c r="Z36" s="2">
         <f t="shared" si="13"/>
         <v>2600</v>
       </c>
-      <c r="Z36" s="2">
+      <c r="AA36" s="2">
         <f t="shared" si="7"/>
         <v>1000</v>
       </c>
-      <c r="AA36" s="24">
+      <c r="AB36" s="24">
         <f>VLOOKUP(A36,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>5</v>
       </c>
-      <c r="AB36" s="25">
+      <c r="AC36" s="25">
         <v>520</v>
       </c>
-      <c r="AC36" s="2">
+      <c r="AD36" s="2">
         <f t="shared" si="8"/>
         <v>2600</v>
       </c>
-      <c r="AD36" s="25">
+      <c r="AE36" s="25">
         <v>200</v>
       </c>
-      <c r="AE36" s="2">
+      <c r="AF36" s="2">
         <f t="shared" si="9"/>
         <v>1000</v>
       </c>
     </row>
-    <row r="37" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A37" s="8" t="s">
         <v>41</v>
       </c>
@@ -13827,81 +13835,81 @@
         <f>VLOOKUP(A37,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I37" s="2">
+      <c r="J37" s="2">
         <f>VLOOKUP(A37,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>334</v>
       </c>
-      <c r="J37" s="2">
+      <c r="K37" s="2">
         <f t="shared" si="2"/>
         <v>-10</v>
       </c>
-      <c r="L37" s="2">
+      <c r="M37" s="2">
         <f t="shared" si="3"/>
         <v>64.8</v>
       </c>
-      <c r="M37" s="28">
+      <c r="N37" s="28">
         <f t="shared" si="14"/>
         <v>257.19999999999993</v>
       </c>
-      <c r="N37" s="34">
+      <c r="O37" s="34">
         <v>240</v>
       </c>
-      <c r="O37" s="42">
+      <c r="P37" s="42">
         <f t="shared" si="4"/>
         <v>140</v>
       </c>
-      <c r="P37" s="43">
+      <c r="Q37" s="43">
         <v>100</v>
       </c>
-      <c r="Q37" s="30"/>
-      <c r="S37" s="2">
+      <c r="R37" s="30"/>
+      <c r="T37" s="2">
         <f t="shared" si="5"/>
         <v>13.734567901234568</v>
       </c>
-      <c r="T37" s="2">
+      <c r="U37" s="2">
         <f t="shared" si="6"/>
         <v>10.030864197530864</v>
       </c>
-      <c r="U37" s="2">
+      <c r="V37" s="2">
         <f>VLOOKUP(A37,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>67</v>
       </c>
-      <c r="V37" s="2">
+      <c r="W37" s="2">
         <f>VLOOKUP(A37,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>25.666666666666668</v>
       </c>
-      <c r="W37" s="2">
+      <c r="X37" s="2">
         <f>VLOOKUP(A37,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>75.8</v>
       </c>
-      <c r="Y37" s="2">
+      <c r="Z37" s="2">
         <f t="shared" si="13"/>
         <v>140</v>
       </c>
-      <c r="Z37" s="2">
+      <c r="AA37" s="2">
         <f t="shared" si="7"/>
         <v>100</v>
       </c>
-      <c r="AA37" s="24">
+      <c r="AB37" s="24">
         <f>VLOOKUP(A37,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>5</v>
       </c>
-      <c r="AB37" s="25">
+      <c r="AC37" s="25">
         <v>28</v>
       </c>
-      <c r="AC37" s="2">
+      <c r="AD37" s="2">
         <f t="shared" si="8"/>
         <v>140</v>
       </c>
-      <c r="AD37" s="25">
+      <c r="AE37" s="25">
         <v>20</v>
       </c>
-      <c r="AE37" s="2">
+      <c r="AF37" s="2">
         <f t="shared" si="9"/>
         <v>100</v>
       </c>
     </row>
-    <row r="38" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A38" s="8" t="s">
         <v>42</v>
       </c>
@@ -13926,83 +13934,83 @@
         <f>VLOOKUP(A38,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>365</v>
       </c>
-      <c r="I38" s="2">
+      <c r="J38" s="2">
         <f>VLOOKUP(A38,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>3</v>
       </c>
-      <c r="J38" s="2">
+      <c r="K38" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L38" s="2">
+      <c r="M38" s="2">
         <f t="shared" si="3"/>
         <v>0.6</v>
       </c>
-      <c r="M38" s="28"/>
-      <c r="N38" s="34">
+      <c r="N38" s="28"/>
+      <c r="O38" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O38" s="42">
+      <c r="P38" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P38" s="43"/>
-      <c r="Q38" s="30"/>
-      <c r="S38" s="2">
+      <c r="Q38" s="43"/>
+      <c r="R38" s="30"/>
+      <c r="T38" s="2">
         <f t="shared" si="5"/>
         <v>133.33333333333334</v>
       </c>
-      <c r="T38" s="2">
+      <c r="U38" s="2">
         <f t="shared" si="6"/>
         <v>133.33333333333334</v>
       </c>
-      <c r="U38" s="2">
+      <c r="V38" s="2">
         <f>VLOOKUP(A38,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>0</v>
       </c>
-      <c r="V38" s="2">
+      <c r="W38" s="2">
         <f>VLOOKUP(A38,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0</v>
       </c>
-      <c r="W38" s="2">
+      <c r="X38" s="2">
         <f>VLOOKUP(A38,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>0</v>
       </c>
-      <c r="X38" s="26" t="str">
+      <c r="Y38" s="26" t="str">
         <f>VLOOKUP(A38,[1]TDSheet!$A$1:$U$65536,21,0)</f>
         <v>нужно увеличить продажи</v>
       </c>
-      <c r="Y38" s="2">
+      <c r="Z38" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z38" s="2">
+      <c r="AA38" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA38" s="24">
+      <c r="AB38" s="24">
         <f>VLOOKUP(A38,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>6</v>
       </c>
-      <c r="AB38" s="25">
+      <c r="AC38" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC38" s="2">
+      <c r="AD38" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD38" s="25">
+      <c r="AE38" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE38" s="2">
+      <c r="AF38" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A39" s="8" t="s">
         <v>43</v>
       </c>
@@ -14029,79 +14037,79 @@
         <f>VLOOKUP(A39,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I39" s="2">
+      <c r="J39" s="2">
         <f>VLOOKUP(A39,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>12</v>
       </c>
-      <c r="J39" s="2">
+      <c r="K39" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L39" s="2">
+      <c r="M39" s="2">
         <f t="shared" si="3"/>
         <v>2.4</v>
       </c>
-      <c r="M39" s="28"/>
-      <c r="N39" s="34">
+      <c r="N39" s="28"/>
+      <c r="O39" s="34">
         <f t="shared" si="10"/>
         <v>0</v>
       </c>
-      <c r="O39" s="42">
+      <c r="P39" s="42">
         <f t="shared" si="4"/>
         <v>0</v>
       </c>
-      <c r="P39" s="43"/>
-      <c r="Q39" s="30"/>
-      <c r="S39" s="2">
+      <c r="Q39" s="43"/>
+      <c r="R39" s="30"/>
+      <c r="T39" s="2">
         <f t="shared" si="5"/>
         <v>18.75</v>
       </c>
-      <c r="T39" s="2">
+      <c r="U39" s="2">
         <f t="shared" si="6"/>
         <v>18.75</v>
       </c>
-      <c r="U39" s="2">
+      <c r="V39" s="2">
         <f>VLOOKUP(A39,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>4.2</v>
       </c>
-      <c r="V39" s="2">
+      <c r="W39" s="2">
         <f>VLOOKUP(A39,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>4</v>
       </c>
-      <c r="W39" s="2">
+      <c r="X39" s="2">
         <f>VLOOKUP(A39,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>4.8</v>
       </c>
-      <c r="Y39" s="2">
+      <c r="Z39" s="2">
         <f t="shared" si="13"/>
         <v>0</v>
       </c>
-      <c r="Z39" s="2">
+      <c r="AA39" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA39" s="24">
+      <c r="AB39" s="24">
         <f>VLOOKUP(A39,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>3</v>
       </c>
-      <c r="AB39" s="25">
+      <c r="AC39" s="25">
         <f t="shared" si="11"/>
         <v>0</v>
       </c>
-      <c r="AC39" s="2">
+      <c r="AD39" s="2">
         <f t="shared" si="8"/>
         <v>0</v>
       </c>
-      <c r="AD39" s="25">
+      <c r="AE39" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE39" s="2">
+      <c r="AF39" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="40" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A40" s="8" t="s">
         <v>44</v>
       </c>
@@ -14128,81 +14136,81 @@
         <f>VLOOKUP(A40,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I40" s="2">
+      <c r="J40" s="2">
         <f>VLOOKUP(A40,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>423</v>
       </c>
-      <c r="J40" s="2">
+      <c r="K40" s="2">
         <f t="shared" si="2"/>
         <v>-9</v>
       </c>
-      <c r="L40" s="2">
+      <c r="M40" s="2">
         <f t="shared" si="3"/>
         <v>82.8</v>
       </c>
-      <c r="M40" s="28">
+      <c r="N40" s="28">
         <f t="shared" si="14"/>
         <v>204.20000000000005</v>
       </c>
-      <c r="N40" s="34">
+      <c r="O40" s="34">
         <v>150</v>
       </c>
-      <c r="O40" s="42">
+      <c r="P40" s="42">
         <f t="shared" si="4"/>
         <v>100</v>
       </c>
-      <c r="P40" s="43">
+      <c r="Q40" s="43">
         <v>50</v>
       </c>
-      <c r="Q40" s="30"/>
-      <c r="S40" s="2">
+      <c r="R40" s="30"/>
+      <c r="T40" s="2">
         <f t="shared" si="5"/>
         <v>13.345410628019325</v>
       </c>
-      <c r="T40" s="2">
+      <c r="U40" s="2">
         <f t="shared" si="6"/>
         <v>11.533816425120774</v>
       </c>
-      <c r="U40" s="2">
+      <c r="V40" s="2">
         <f>VLOOKUP(A40,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>102.4</v>
       </c>
-      <c r="V40" s="2">
+      <c r="W40" s="2">
         <f>VLOOKUP(A40,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>88</v>
       </c>
-      <c r="W40" s="2">
+      <c r="X40" s="2">
         <f>VLOOKUP(A40,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>170.2</v>
       </c>
-      <c r="Y40" s="2">
+      <c r="Z40" s="2">
         <f t="shared" si="13"/>
         <v>25</v>
       </c>
-      <c r="Z40" s="2">
+      <c r="AA40" s="2">
         <f t="shared" si="7"/>
         <v>12.5</v>
       </c>
-      <c r="AA40" s="24">
+      <c r="AB40" s="24">
         <f>VLOOKUP(A40,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB40" s="25">
+      <c r="AC40" s="25">
         <v>8</v>
       </c>
-      <c r="AC40" s="2">
+      <c r="AD40" s="2">
         <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="AD40" s="25">
+      <c r="AE40" s="25">
         <v>4</v>
       </c>
-      <c r="AE40" s="2">
+      <c r="AF40" s="2">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
     </row>
-    <row r="41" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A41" s="8" t="s">
         <v>45</v>
       </c>
@@ -14229,81 +14237,81 @@
         <f>VLOOKUP(A41,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I41" s="2">
+      <c r="J41" s="2">
         <f>VLOOKUP(A41,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>33.299999999999997</v>
       </c>
-      <c r="J41" s="2">
+      <c r="K41" s="2">
         <f t="shared" si="2"/>
         <v>3.6000000000000014</v>
       </c>
-      <c r="L41" s="2">
+      <c r="M41" s="2">
         <f t="shared" si="3"/>
         <v>7.38</v>
       </c>
-      <c r="M41" s="28">
+      <c r="N41" s="28">
         <f t="shared" si="14"/>
         <v>63.719999999999992</v>
       </c>
-      <c r="N41" s="34">
+      <c r="O41" s="34">
         <f t="shared" si="10"/>
         <v>63.719999999999992</v>
       </c>
-      <c r="O41" s="42">
+      <c r="P41" s="42">
         <f t="shared" si="4"/>
         <v>63.719999999999992</v>
       </c>
-      <c r="P41" s="43"/>
-      <c r="Q41" s="30"/>
-      <c r="S41" s="2">
+      <c r="Q41" s="43"/>
+      <c r="R41" s="30"/>
+      <c r="T41" s="2">
         <f t="shared" si="5"/>
         <v>14</v>
       </c>
-      <c r="T41" s="2">
+      <c r="U41" s="2">
         <f t="shared" si="6"/>
         <v>5.3658536585365857</v>
       </c>
-      <c r="U41" s="2">
+      <c r="V41" s="2">
         <f>VLOOKUP(A41,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>6.56</v>
       </c>
-      <c r="V41" s="2">
+      <c r="W41" s="2">
         <f>VLOOKUP(A41,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0</v>
       </c>
-      <c r="W41" s="2">
+      <c r="X41" s="2">
         <f>VLOOKUP(A41,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>6.12</v>
       </c>
-      <c r="Y41" s="2">
+      <c r="Z41" s="2">
         <f t="shared" si="13"/>
         <v>63.719999999999992</v>
       </c>
-      <c r="Z41" s="2">
+      <c r="AA41" s="2">
         <f t="shared" si="7"/>
         <v>0</v>
       </c>
-      <c r="AA41" s="24">
+      <c r="AB41" s="24">
         <f>VLOOKUP(A41,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>1.8</v>
       </c>
-      <c r="AB41" s="25">
+      <c r="AC41" s="25">
         <v>35</v>
       </c>
-      <c r="AC41" s="2">
+      <c r="AD41" s="2">
         <f t="shared" si="8"/>
         <v>63</v>
       </c>
-      <c r="AD41" s="25">
+      <c r="AE41" s="25">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="AE41" s="2">
+      <c r="AF41" s="2">
         <f t="shared" si="9"/>
         <v>0</v>
       </c>
     </row>
-    <row r="42" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A42" s="8" t="s">
         <v>46</v>
       </c>
@@ -14330,81 +14338,81 @@
         <f>VLOOKUP(A42,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>365</v>
       </c>
-      <c r="I42" s="2">
+      <c r="J42" s="2">
         <f>VLOOKUP(A42,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>94</v>
       </c>
-      <c r="J42" s="2">
+      <c r="K42" s="2">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="L42" s="2">
+      <c r="M42" s="2">
         <f t="shared" si="3"/>
         <v>17.600000000000001</v>
       </c>
-      <c r="M42" s="28">
+      <c r="N42" s="28">
         <f t="shared" si="14"/>
         <v>143.40000000000003</v>
       </c>
-      <c r="N42" s="34">
+      <c r="O42" s="34">
         <v>120</v>
       </c>
-      <c r="O42" s="42">
+      <c r="P42" s="42">
         <f t="shared" si="4"/>
         <v>70</v>
       </c>
-      <c r="P42" s="43">
+      <c r="Q42" s="43">
         <v>50</v>
       </c>
-      <c r="Q42" s="30"/>
-      <c r="S42" s="2">
+      <c r="R42" s="30"/>
+      <c r="T42" s="2">
         <f t="shared" si="5"/>
         <v>12.670454545454545</v>
       </c>
-      <c r="T42" s="2">
+      <c r="U42" s="2">
         <f t="shared" si="6"/>
         <v>5.8522727272727266</v>
       </c>
-      <c r="U42" s="2">
+      <c r="V42" s="2">
         <f>VLOOKUP(A42,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>13.8</v>
       </c>
-      <c r="V42" s="2">
+      <c r="W42" s="2">
         <f>VLOOKUP(A42,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>2.6666666666666665</v>
       </c>
-      <c r="W42" s="2">
+      <c r="X42" s="2">
         <f>VLOOKUP(A42,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>13.2</v>
       </c>
-      <c r="Y42" s="2">
+      <c r="Z42" s="2">
         <f t="shared" si="13"/>
         <v>14</v>
       </c>
-      <c r="Z42" s="2">
+      <c r="AA42" s="2">
         <f t="shared" si="7"/>
         <v>10</v>
       </c>
-      <c r="AA42" s="24">
+      <c r="AB42" s="24">
         <f>VLOOKUP(A42,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>6</v>
       </c>
-      <c r="AB42" s="25">
+      <c r="AC42" s="25">
         <v>11</v>
       </c>
-      <c r="AC42" s="2">
+      <c r="AD42" s="2">
         <f t="shared" si="8"/>
         <v>13.200000000000001</v>
       </c>
-      <c r="AD42" s="25">
+      <c r="AE42" s="25">
         <v>8</v>
       </c>
-      <c r="AE42" s="2">
+      <c r="AF42" s="2">
         <f t="shared" si="9"/>
         <v>9.6000000000000014</v>
       </c>
     </row>
-    <row r="43" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A43" s="8" t="s">
         <v>47</v>
       </c>
@@ -14431,81 +14439,81 @@
         <f>VLOOKUP(A43,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>365</v>
       </c>
-      <c r="I43" s="2">
+      <c r="J43" s="2">
         <f>VLOOKUP(A43,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>101</v>
       </c>
-      <c r="J43" s="2">
+      <c r="K43" s="2">
         <f t="shared" si="2"/>
         <v>-6</v>
       </c>
-      <c r="L43" s="2">
+      <c r="M43" s="2">
         <f t="shared" si="3"/>
         <v>19</v>
       </c>
-      <c r="M43" s="28">
-        <f>12*L43-F43</f>
+      <c r="N43" s="28">
+        <f>12*M43-F43</f>
         <v>178</v>
       </c>
-      <c r="N43" s="34">
+      <c r="O43" s="34">
         <v>150</v>
       </c>
-      <c r="O43" s="42">
+      <c r="P43" s="42">
         <f t="shared" si="4"/>
         <v>90</v>
       </c>
-      <c r="P43" s="43">
+      <c r="Q43" s="43">
         <v>60</v>
       </c>
-      <c r="Q43" s="30"/>
-      <c r="S43" s="2">
+      <c r="R43" s="30"/>
+      <c r="T43" s="2">
         <f t="shared" si="5"/>
         <v>10.526315789473685</v>
       </c>
-      <c r="T43" s="2">
+      <c r="U43" s="2">
         <f t="shared" si="6"/>
         <v>2.6315789473684212</v>
       </c>
-      <c r="U43" s="2">
+      <c r="V43" s="2">
         <f>VLOOKUP(A43,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>16</v>
       </c>
-      <c r="V43" s="2">
+      <c r="W43" s="2">
         <f>VLOOKUP(A43,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>4.666666666666667</v>
       </c>
-      <c r="W43" s="2">
+      <c r="X43" s="2">
         <f>VLOOKUP(A43,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>11.8</v>
       </c>
-      <c r="Y43" s="2">
+      <c r="Z43" s="2">
         <f t="shared" si="13"/>
         <v>18</v>
       </c>
-      <c r="Z43" s="2">
+      <c r="AA43" s="2">
         <f t="shared" si="7"/>
         <v>12</v>
       </c>
-      <c r="AA43" s="24">
+      <c r="AB43" s="24">
         <f>VLOOKUP(A43,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>6</v>
       </c>
-      <c r="AB43" s="25">
+      <c r="AC43" s="25">
         <v>15</v>
       </c>
-      <c r="AC43" s="2">
+      <c r="AD43" s="2">
         <f t="shared" si="8"/>
         <v>18</v>
       </c>
-      <c r="AD43" s="25">
+      <c r="AE43" s="25">
         <v>10</v>
       </c>
-      <c r="AE43" s="2">
+      <c r="AF43" s="2">
         <f t="shared" si="9"/>
         <v>12</v>
       </c>
     </row>
-    <row r="44" spans="1:31" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:32" ht="21.95" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A44" s="8" t="s">
         <v>48</v>
       </c>
@@ -14532,82 +14540,82 @@
         <f>VLOOKUP(A44,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I44" s="2">
+      <c r="J44" s="2">
         <f>VLOOKUP(A44,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>175</v>
       </c>
-      <c r="J44" s="2">
+      <c r="K44" s="2">
         <f t="shared" si="2"/>
         <v>2</v>
       </c>
-      <c r="L44" s="2">
+      <c r="M44" s="2">
         <f t="shared" si="3"/>
         <v>35.4</v>
       </c>
-      <c r="M44" s="28">
-        <f>12*L44-F44</f>
+      <c r="N44" s="28">
+        <f>12*M44-F44</f>
         <v>305.79999999999995</v>
       </c>
-      <c r="N44" s="34">
+      <c r="O44" s="34">
         <f t="shared" si="10"/>
         <v>305.79999999999995</v>
       </c>
-      <c r="O44" s="42">
+      <c r="P44" s="42">
         <f t="shared" si="4"/>
         <v>205.79999999999995</v>
       </c>
-      <c r="P44" s="43">
+      <c r="Q44" s="43">
         <v>100</v>
       </c>
-      <c r="Q44" s="30"/>
-      <c r="S44" s="2">
+      <c r="R44" s="30"/>
+      <c r="T44" s="2">
         <f t="shared" si="5"/>
         <v>12</v>
       </c>
-      <c r="T44" s="2">
+      <c r="U44" s="2">
         <f t="shared" si="6"/>
         <v>3.361581920903955</v>
       </c>
-      <c r="U44" s="2">
+      <c r="V44" s="2">
         <f>VLOOKUP(A44,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>25</v>
       </c>
-      <c r="V44" s="2">
+      <c r="W44" s="2">
         <f>VLOOKUP(A44,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>41</v>
       </c>
-      <c r="W44" s="2">
+      <c r="X44" s="2">
         <f>VLOOKUP(A44,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>30.4</v>
       </c>
-      <c r="Y44" s="2">
+      <c r="Z44" s="2">
         <f t="shared" si="13"/>
         <v>98.783999999999978</v>
       </c>
-      <c r="Z44" s="2">
+      <c r="AA44" s="2">
         <f t="shared" si="7"/>
         <v>48</v>
       </c>
-      <c r="AA44" s="24">
+      <c r="AB44" s="24">
         <f>VLOOKUP(A44,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>8</v>
       </c>
-      <c r="AB44" s="25">
+      <c r="AC44" s="25">
         <v>25</v>
       </c>
-      <c r="AC44" s="2">
+      <c r="AD44" s="2">
         <f t="shared" si="8"/>
         <v>96</v>
       </c>
-      <c r="AD44" s="25">
+      <c r="AE44" s="25">
         <v>12</v>
       </c>
-      <c r="AE44" s="2">
+      <c r="AF44" s="2">
         <f t="shared" si="9"/>
         <v>46.08</v>
       </c>
     </row>
-    <row r="45" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A45" s="8" t="s">
         <v>49</v>
       </c>
@@ -14634,81 +14642,81 @@
         <f>VLOOKUP(A45,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I45" s="2">
+      <c r="J45" s="2">
         <f>VLOOKUP(A45,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>699</v>
       </c>
-      <c r="J45" s="2">
+      <c r="K45" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L45" s="2">
+      <c r="M45" s="2">
         <f t="shared" si="3"/>
         <v>139.80000000000001</v>
       </c>
-      <c r="M45" s="28">
+      <c r="N45" s="28">
         <f t="shared" si="14"/>
         <v>1243.2000000000003</v>
       </c>
-      <c r="N45" s="34">
+      <c r="O45" s="34">
         <v>1100</v>
       </c>
-      <c r="O45" s="42">
+      <c r="P45" s="42">
         <f t="shared" si="4"/>
         <v>600</v>
       </c>
-      <c r="P45" s="43">
+      <c r="Q45" s="43">
         <v>500</v>
       </c>
-      <c r="Q45" s="30"/>
-      <c r="S45" s="2">
+      <c r="R45" s="30"/>
+      <c r="T45" s="2">
         <f t="shared" si="5"/>
         <v>12.975679542203146</v>
       </c>
-      <c r="T45" s="2">
+      <c r="U45" s="2">
         <f t="shared" si="6"/>
         <v>5.1072961373390555</v>
       </c>
-      <c r="U45" s="2">
+      <c r="V45" s="2">
         <f>VLOOKUP(A45,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>133.4</v>
       </c>
-      <c r="V45" s="2">
+      <c r="W45" s="2">
         <f>VLOOKUP(A45,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>120</v>
       </c>
-      <c r="W45" s="2">
+      <c r="X45" s="2">
         <f>VLOOKUP(A45,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>160.80000000000001</v>
       </c>
-      <c r="Y45" s="2">
+      <c r="Z45" s="2">
         <f t="shared" si="13"/>
         <v>150</v>
       </c>
-      <c r="Z45" s="2">
+      <c r="AA45" s="2">
         <f t="shared" si="7"/>
         <v>125</v>
       </c>
-      <c r="AA45" s="24">
+      <c r="AB45" s="24">
         <f>VLOOKUP(A45,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB45" s="25">
+      <c r="AC45" s="25">
         <v>50</v>
       </c>
-      <c r="AC45" s="2">
+      <c r="AD45" s="2">
         <f t="shared" si="8"/>
         <v>150</v>
       </c>
-      <c r="AD45" s="25">
+      <c r="AE45" s="25">
         <v>41</v>
       </c>
-      <c r="AE45" s="2">
+      <c r="AF45" s="2">
         <f t="shared" si="9"/>
         <v>123</v>
       </c>
     </row>
-    <row r="46" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A46" s="8" t="s">
         <v>50</v>
       </c>
@@ -14735,81 +14743,81 @@
         <f>VLOOKUP(A46,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I46" s="2">
+      <c r="J46" s="2">
         <f>VLOOKUP(A46,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>593</v>
       </c>
-      <c r="J46" s="2">
+      <c r="K46" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L46" s="2">
+      <c r="M46" s="2">
         <f t="shared" si="3"/>
         <v>118.6</v>
       </c>
-      <c r="M46" s="28">
+      <c r="N46" s="28">
         <f t="shared" si="14"/>
         <v>538.39999999999986</v>
       </c>
-      <c r="N46" s="34">
+      <c r="O46" s="34">
         <v>480</v>
       </c>
-      <c r="O46" s="42">
+      <c r="P46" s="42">
         <f t="shared" si="4"/>
         <v>280</v>
       </c>
-      <c r="P46" s="43">
+      <c r="Q46" s="43">
         <v>200</v>
       </c>
-      <c r="Q46" s="30"/>
-      <c r="S46" s="2">
+      <c r="R46" s="30"/>
+      <c r="T46" s="2">
         <f t="shared" si="5"/>
         <v>13.507588532883643</v>
       </c>
-      <c r="T46" s="2">
+      <c r="U46" s="2">
         <f t="shared" si="6"/>
         <v>9.4603709949409787</v>
       </c>
-      <c r="U46" s="2">
+      <c r="V46" s="2">
         <f>VLOOKUP(A46,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>132.4</v>
       </c>
-      <c r="V46" s="2">
+      <c r="W46" s="2">
         <f>VLOOKUP(A46,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>93.333333333333329</v>
       </c>
-      <c r="W46" s="2">
+      <c r="X46" s="2">
         <f>VLOOKUP(A46,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>155.4</v>
       </c>
-      <c r="Y46" s="2">
+      <c r="Z46" s="2">
         <f t="shared" si="13"/>
         <v>70</v>
       </c>
-      <c r="Z46" s="2">
+      <c r="AA46" s="2">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="AA46" s="24">
+      <c r="AB46" s="24">
         <f>VLOOKUP(A46,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>12</v>
       </c>
-      <c r="AB46" s="25">
+      <c r="AC46" s="25">
         <v>23</v>
       </c>
-      <c r="AC46" s="2">
+      <c r="AD46" s="2">
         <f t="shared" si="8"/>
         <v>69</v>
       </c>
-      <c r="AD46" s="25">
+      <c r="AE46" s="25">
         <v>16</v>
       </c>
-      <c r="AE46" s="2">
+      <c r="AF46" s="2">
         <f t="shared" si="9"/>
         <v>48</v>
       </c>
     </row>
-    <row r="47" spans="1:31" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:32" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A47" s="8" t="s">
         <v>51</v>
       </c>
@@ -14832,77 +14840,77 @@
         <f>VLOOKUP(A47,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="J47" s="2">
+      <c r="K47" s="2">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="L47" s="2">
+      <c r="M47" s="2">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="M47" s="29">
+      <c r="N47" s="29">
         <v>100</v>
       </c>
-      <c r="N47" s="34">
+      <c r="O47" s="34">
         <f t="shared" si="10"/>
         <v>100</v>
       </c>
-      <c r="O47" s="42">
+      <c r="P47" s="42">
         <f t="shared" si="4"/>
         <v>50</v>
       </c>
-      <c r="P47" s="43">
+      <c r="Q47" s="43">
         <v>50</v>
       </c>
-      <c r="Q47" s="30"/>
-      <c r="S47" s="2" t="e">
+      <c r="R47" s="30"/>
+      <c r="T47" s="2" t="e">
         <f t="shared" si="5"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="T47" s="2" t="e">
+      <c r="U47" s="2" t="e">
         <f t="shared" si="6"/>
         <v>#DIV/0!</v>
       </c>
-      <c r="U47" s="2">
+      <c r="V47" s="2">
         <f>VLOOKUP(A47,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>0.54</v>
       </c>
-      <c r="V47" s="2">
+      <c r="W47" s="2">
         <f>VLOOKUP(A47,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>0</v>
       </c>
-      <c r="W47" s="2">
+      <c r="X47" s="2">
         <f>VLOOKUP(A47,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>1.08</v>
       </c>
-      <c r="Y47" s="2">
+      <c r="Z47" s="2">
         <f t="shared" si="13"/>
         <v>50</v>
       </c>
-      <c r="Z47" s="2">
+      <c r="AA47" s="2">
         <f t="shared" si="7"/>
         <v>50</v>
       </c>
-      <c r="AA47" s="24">
+      <c r="AB47" s="24">
         <f>VLOOKUP(A47,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>2.7</v>
       </c>
-      <c r="AB47" s="25">
+      <c r="AC47" s="25">
         <v>18</v>
       </c>
-      <c r="AC47" s="2">
+      <c r="AD47" s="2">
         <f t="shared" si="8"/>
         <v>48.6</v>
       </c>
-      <c r="AD47" s="25">
+      <c r="AE47" s="25">
         <v>18</v>
       </c>
-      <c r="AE47" s="2">
+      <c r="AF47" s="2">
         <f t="shared" si="9"/>
         <v>48.6</v>
       </c>
     </row>
-    <row r="48" spans="1:31" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:32" ht="11.1" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>52</v>
       </c>
@@ -14929,82 +14937,82 @@
         <f>VLOOKUP(A48,[2]Лист1!$A$1:$G$65536,7,0)</f>
         <v>180</v>
       </c>
-      <c r="I48" s="2">
+      <c r="J48" s="2">
         <f>VLOOKUP(A48,[3]TDSheet!$A$1:$E$65536,4,0)</f>
         <v>960</v>
       </c>
-      <c r="J48" s="2">
+      <c r="K48" s="2">
         <f t="shared" si="2"/>
         <v>5</v>
       </c>
-      <c r="L48" s="2">
+      <c r="M48" s="2">
         <f t="shared" si="3"/>
         <v>193</v>
       </c>
-      <c r="M48" s="28">
-        <f>12*L48-F48</f>
+      <c r="N48" s="28">
+        <f>12*M48-F48</f>
         <v>1661</v>
       </c>
-      <c r="N48" s="35">
+      <c r="O48" s="35">
         <v>1600</v>
       </c>
-      <c r="O48" s="44">
+      <c r="P48" s="44">
         <f t="shared" si="4"/>
         <v>1000</v>
       </c>
-      <c r="P48" s="45">
+      <c r="Q48" s="45">
         <v>600</v>
       </c>
-      <c r="Q48" s="30"/>
-      <c r="S48" s="2">
+      <c r="R48" s="30"/>
+      <c r="T48" s="2">
         <f t="shared" si="5"/>
         <v>11.683937823834198</v>
       </c>
-      <c r="T48" s="2">
+      <c r="U48" s="2">
         <f t="shared" si="6"/>
         <v>3.3937823834196892</v>
       </c>
-      <c r="U48" s="2">
+      <c r="V48" s="2">
         <f>VLOOKUP(A48,[1]TDSheet!$A$1:$S$65536,19,0)</f>
         <v>147.80000000000001</v>
       </c>
-      <c r="V48" s="2">
+      <c r="W48" s="2">
         <f>VLOOKUP(A48,[1]TDSheet!$A$1:$T$65536,20,0)</f>
         <v>86.666666666666671</v>
       </c>
-      <c r="W48" s="2">
+      <c r="X48" s="2">
         <f>VLOOKUP(A48,[1]TDSheet!$A$1:$L$65536,12,0)</f>
         <v>122</v>
       </c>
-      <c r="Y48" s="2">
+      <c r="Z48" s="2">
         <f t="shared" si="13"/>
         <v>1000</v>
       </c>
-      <c r="Z48" s="2">
+      <c r="AA48" s="2">
         <f t="shared" si="7"/>
         <v>600</v>
       </c>
-      <c r="AA48" s="24">
+      <c r="AB48" s="24">
         <f>VLOOKUP(A48,[1]TDSheet!$A$1:$W$65536,23,0)</f>
         <v>5</v>
       </c>
-      <c r="AB48" s="25">
+      <c r="AC48" s="25">
         <v>200</v>
       </c>
-      <c r="AC48" s="2">
+      <c r="AD48" s="2">
         <f t="shared" si="8"/>
         <v>1000</v>
       </c>
-      <c r="AD48" s="25">
+      <c r="AE48" s="25">
         <v>120</v>
       </c>
-      <c r="AE48" s="2">
+      <c r="AF48" s="2">
         <f t="shared" si="9"/>
         <v>600</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A3:AE3" xr:uid="{75860EAA-5076-4343-A3F0-6D87AE804C13}"/>
+  <autoFilter ref="A3:AF3" xr:uid="{75860EAA-5076-4343-A3F0-6D87AE804C13}"/>
   <pageMargins left="0.75" right="1" top="0.75" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
